--- a/static/需求/字段(13.2).xlsx
+++ b/static/需求/字段(13.2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="月报数据项" sheetId="3" r:id="rId1"/>
@@ -3229,10 +3229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -3321,30 +3321,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3358,14 +3365,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3382,16 +3389,55 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3402,8 +3448,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3418,58 +3465,11 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3514,7 +3514,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3526,25 +3628,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3556,85 +3664,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3646,55 +3688,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4091,30 +4091,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4134,7 +4110,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4171,6 +4156,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -4180,11 +4174,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4196,10 +4196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4208,140 +4208,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4579,6 +4579,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4627,6 +4630,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4666,13 +4672,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5187,2780 +5193,2780 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.775" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" style="117" customWidth="1"/>
-    <col min="2" max="2" width="17.3333333333333" style="118" customWidth="1"/>
-    <col min="3" max="3" width="32.3333333333333" style="119" customWidth="1"/>
-    <col min="4" max="4" width="5.775" style="119" customWidth="1"/>
-    <col min="5" max="5" width="37.8833333333333" style="119" customWidth="1"/>
-    <col min="6" max="6" width="18.8833333333333" style="120" customWidth="1"/>
-    <col min="7" max="7" width="23.3333333333333" style="120" customWidth="1"/>
-    <col min="8" max="8" width="39.775" style="119" customWidth="1"/>
-    <col min="9" max="9" width="107.216666666667" style="121" customWidth="1"/>
-    <col min="10" max="10" width="52.775" style="119" customWidth="1"/>
-    <col min="11" max="16384" width="9.775" style="119"/>
+    <col min="1" max="1" width="7.66666666666667" style="119" customWidth="1"/>
+    <col min="2" max="2" width="17.3333333333333" style="120" customWidth="1"/>
+    <col min="3" max="3" width="32.3333333333333" style="121" customWidth="1"/>
+    <col min="4" max="4" width="5.775" style="121" customWidth="1"/>
+    <col min="5" max="5" width="37.8833333333333" style="121" customWidth="1"/>
+    <col min="6" max="6" width="18.8833333333333" style="122" customWidth="1"/>
+    <col min="7" max="7" width="23.3333333333333" style="122" customWidth="1"/>
+    <col min="8" max="8" width="39.775" style="121" customWidth="1"/>
+    <col min="9" max="9" width="107.216666666667" style="123" customWidth="1"/>
+    <col min="10" max="10" width="52.775" style="121" customWidth="1"/>
+    <col min="11" max="16384" width="9.775" style="121"/>
   </cols>
   <sheetData>
-    <row r="1" s="112" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A1" s="122" t="s">
+    <row r="1" s="114" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="124" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="H1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="152" t="s">
+      <c r="I1" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="153" t="s">
+      <c r="J1" s="155" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:9">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="117">
+      <c r="D2" s="119">
         <v>1</v>
       </c>
-      <c r="E2" s="117" t="s">
+      <c r="E2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="132" t="s">
+      <c r="G2" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="133" t="s">
+      <c r="H2" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="154" t="s">
+      <c r="I2" s="156" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:10">
-      <c r="A3" s="134"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="130" t="s">
+      <c r="A3" s="136"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="119">
         <v>1</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="131" t="s">
+      <c r="F3" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="135" t="s">
+      <c r="G3" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="154" t="s">
+      <c r="H3" s="138"/>
+      <c r="I3" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="119" t="s">
+      <c r="J3" s="121" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:9">
-      <c r="A4" s="134"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="130" t="s">
+      <c r="A4" s="136"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="117">
+      <c r="D4" s="119">
         <v>1</v>
       </c>
-      <c r="E4" s="117" t="s">
+      <c r="E4" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="131" t="s">
+      <c r="F4" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="136"/>
-      <c r="I4" s="155" t="s">
+      <c r="H4" s="138"/>
+      <c r="I4" s="157" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:9">
-      <c r="A5" s="134"/>
-      <c r="B5" s="137" t="s">
+      <c r="A5" s="136"/>
+      <c r="B5" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="119">
         <v>1</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="132" t="s">
+      <c r="G5" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="136"/>
-      <c r="I5" s="154" t="s">
+      <c r="H5" s="138"/>
+      <c r="I5" s="156" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" s="113" customFormat="1" spans="1:9">
-      <c r="A6" s="134"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="139" t="s">
+    <row r="6" s="115" customFormat="1" spans="1:9">
+      <c r="A6" s="136"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="140">
+      <c r="D6" s="142">
         <v>1</v>
       </c>
-      <c r="E6" s="140"/>
-      <c r="F6" s="141" t="s">
+      <c r="E6" s="142"/>
+      <c r="F6" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="142" t="s">
+      <c r="G6" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="136"/>
-      <c r="I6" s="156"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="158"/>
     </row>
     <row r="7" ht="67.5" spans="1:9">
-      <c r="A7" s="134"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="130" t="s">
+      <c r="A7" s="136"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="117">
+      <c r="D7" s="119">
         <v>1</v>
       </c>
-      <c r="E7" s="117" t="s">
+      <c r="E7" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="131" t="s">
+      <c r="F7" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="135" t="s">
+      <c r="G7" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="136"/>
-      <c r="I7" s="154" t="s">
+      <c r="H7" s="138"/>
+      <c r="I7" s="156" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" s="113" customFormat="1" spans="1:9">
-      <c r="A8" s="134"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="139" t="s">
+    <row r="8" s="115" customFormat="1" spans="1:9">
+      <c r="A8" s="136"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="140">
+      <c r="D8" s="142">
         <v>1</v>
       </c>
-      <c r="E8" s="140"/>
-      <c r="F8" s="141" t="s">
+      <c r="E8" s="142"/>
+      <c r="F8" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="142" t="s">
+      <c r="G8" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="156"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="158"/>
     </row>
     <row r="9" ht="162" spans="1:9">
-      <c r="A9" s="134"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="130" t="s">
+      <c r="A9" s="136"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="119">
         <v>1</v>
       </c>
-      <c r="E9" s="143" t="s">
+      <c r="E9" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="131" t="s">
+      <c r="F9" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="135" t="s">
+      <c r="G9" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="136"/>
-      <c r="I9" s="154" t="s">
+      <c r="H9" s="138"/>
+      <c r="I9" s="156" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" s="113" customFormat="1" spans="1:9">
-      <c r="A10" s="134"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="139" t="s">
+    <row r="10" s="115" customFormat="1" spans="1:9">
+      <c r="A10" s="136"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="140">
+      <c r="D10" s="142">
         <v>1</v>
       </c>
-      <c r="E10" s="140"/>
-      <c r="F10" s="141" t="s">
+      <c r="E10" s="142"/>
+      <c r="F10" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="142" t="s">
+      <c r="G10" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="136"/>
-      <c r="I10" s="156"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="158"/>
     </row>
     <row r="11" ht="189" spans="1:9">
-      <c r="A11" s="134"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="130" t="s">
+      <c r="A11" s="136"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="117">
+      <c r="D11" s="119">
         <v>1</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="131" t="s">
+      <c r="F11" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="135" t="s">
+      <c r="G11" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="136"/>
-      <c r="I11" s="154" t="s">
+      <c r="H11" s="138"/>
+      <c r="I11" s="156" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" s="113" customFormat="1" spans="1:9">
-      <c r="A12" s="134"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="139" t="s">
+    <row r="12" s="115" customFormat="1" spans="1:9">
+      <c r="A12" s="136"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="140">
+      <c r="D12" s="142">
         <v>1</v>
       </c>
-      <c r="E12" s="140"/>
-      <c r="F12" s="141" t="s">
+      <c r="E12" s="142"/>
+      <c r="F12" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="142" t="s">
+      <c r="G12" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="136"/>
-      <c r="I12" s="156"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="158"/>
     </row>
     <row r="13" ht="27" spans="1:9">
-      <c r="A13" s="134"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="130" t="s">
+      <c r="A13" s="136"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="117">
+      <c r="D13" s="119">
         <v>1</v>
       </c>
-      <c r="E13" s="117" t="s">
+      <c r="E13" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="131" t="s">
+      <c r="F13" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="132" t="s">
+      <c r="G13" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="136"/>
-      <c r="I13" s="154" t="s">
+      <c r="H13" s="138"/>
+      <c r="I13" s="156" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:9">
-      <c r="A14" s="134"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="130" t="s">
+      <c r="A14" s="136"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="117">
+      <c r="D14" s="119">
         <v>1</v>
       </c>
-      <c r="E14" s="117" t="s">
+      <c r="E14" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="131" t="s">
+      <c r="F14" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="132" t="s">
+      <c r="G14" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="136"/>
-      <c r="I14" s="154" t="s">
+      <c r="H14" s="138"/>
+      <c r="I14" s="156" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:9">
-      <c r="A15" s="134"/>
-      <c r="B15" s="131" t="s">
+      <c r="A15" s="136"/>
+      <c r="B15" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="119">
         <v>1</v>
       </c>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="131" t="s">
+      <c r="F15" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="132" t="s">
+      <c r="G15" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="136"/>
-      <c r="I15" s="154" t="s">
+      <c r="H15" s="138"/>
+      <c r="I15" s="156" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:9">
-      <c r="A16" s="134"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="130" t="s">
+      <c r="A16" s="136"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="117">
+      <c r="D16" s="119">
         <v>1</v>
       </c>
-      <c r="E16" s="117" t="s">
+      <c r="E16" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="131" t="s">
+      <c r="F16" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="132" t="s">
+      <c r="G16" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="136"/>
-      <c r="I16" s="154" t="s">
+      <c r="H16" s="138"/>
+      <c r="I16" s="156" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" s="113" customFormat="1" spans="1:9">
-      <c r="A17" s="134"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="139" t="s">
+    <row r="17" s="115" customFormat="1" spans="1:9">
+      <c r="A17" s="136"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="140">
+      <c r="D17" s="142">
         <v>1</v>
       </c>
-      <c r="E17" s="140"/>
-      <c r="F17" s="141" t="s">
+      <c r="E17" s="142"/>
+      <c r="F17" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="142" t="s">
+      <c r="G17" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="136"/>
-      <c r="I17" s="156"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="158"/>
     </row>
     <row r="18" hidden="1" spans="1:9">
-      <c r="A18" s="134"/>
-      <c r="B18" s="131" t="s">
+      <c r="A18" s="136"/>
+      <c r="B18" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="154"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="156"/>
     </row>
     <row r="19" hidden="1" spans="1:9">
-      <c r="A19" s="134"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="130" t="s">
+      <c r="A19" s="136"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="154"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="156"/>
     </row>
     <row r="20" hidden="1" spans="1:9">
-      <c r="A20" s="134"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="130" t="s">
+      <c r="A20" s="136"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="154"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="156"/>
     </row>
     <row r="21" hidden="1" spans="1:9">
-      <c r="A21" s="134"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="130" t="s">
+      <c r="A21" s="136"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="154"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="156"/>
     </row>
     <row r="22" hidden="1" spans="1:9">
-      <c r="A22" s="134"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="130" t="s">
+      <c r="A22" s="136"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="154"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="156"/>
     </row>
     <row r="23" hidden="1" spans="1:9">
-      <c r="A23" s="134"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="130" t="s">
+      <c r="A23" s="136"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="154"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="156"/>
     </row>
     <row r="24" hidden="1" spans="1:9">
-      <c r="A24" s="134"/>
-      <c r="B24" s="131" t="s">
+      <c r="A24" s="136"/>
+      <c r="B24" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="117">
+      <c r="D24" s="119">
         <v>1</v>
       </c>
-      <c r="E24" s="117" t="s">
+      <c r="E24" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="131" t="s">
+      <c r="F24" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="132" t="s">
+      <c r="G24" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="136"/>
-      <c r="I24" s="154"/>
-    </row>
-    <row r="25" s="114" customFormat="1" spans="1:9">
-      <c r="A25" s="145"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="147" t="s">
+      <c r="H24" s="138"/>
+      <c r="I24" s="156"/>
+    </row>
+    <row r="25" s="116" customFormat="1" spans="1:9">
+      <c r="A25" s="147"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148" t="s">
+      <c r="D25" s="150"/>
+      <c r="E25" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="146" t="s">
+      <c r="F25" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="149" t="s">
+      <c r="G25" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="150"/>
-      <c r="I25" s="157"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="159"/>
     </row>
     <row r="26" ht="67.5" spans="1:9">
-      <c r="A26" s="134"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="130" t="s">
+      <c r="A26" s="136"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="117">
+      <c r="D26" s="119">
         <v>1</v>
       </c>
-      <c r="E26" s="117" t="s">
+      <c r="E26" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="131" t="s">
+      <c r="F26" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="132" t="s">
+      <c r="G26" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="136"/>
-      <c r="I26" s="154" t="s">
+      <c r="H26" s="138"/>
+      <c r="I26" s="156" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" s="113" customFormat="1" spans="1:9">
-      <c r="A27" s="134"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="139" t="s">
+    <row r="27" s="115" customFormat="1" spans="1:9">
+      <c r="A27" s="136"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="140">
+      <c r="D27" s="142">
         <v>1</v>
       </c>
-      <c r="E27" s="140"/>
-      <c r="F27" s="141" t="s">
+      <c r="E27" s="142"/>
+      <c r="F27" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="144" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="136"/>
-      <c r="I27" s="156"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="158"/>
     </row>
     <row r="28" hidden="1" spans="1:9">
-      <c r="A28" s="134"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="130" t="s">
+      <c r="A28" s="136"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117" t="s">
+      <c r="D28" s="119"/>
+      <c r="E28" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="131" t="s">
+      <c r="F28" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="132" t="s">
+      <c r="G28" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="136"/>
-      <c r="I28" s="154"/>
-    </row>
-    <row r="29" s="114" customFormat="1" spans="1:9">
-      <c r="A29" s="145"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147" t="s">
+      <c r="H28" s="138"/>
+      <c r="I28" s="156"/>
+    </row>
+    <row r="29" s="116" customFormat="1" spans="1:9">
+      <c r="A29" s="147"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="149" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148" t="s">
+      <c r="D29" s="150"/>
+      <c r="E29" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="146" t="s">
+      <c r="F29" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="149" t="s">
+      <c r="G29" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="150"/>
-      <c r="I29" s="157"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="159"/>
     </row>
     <row r="30" ht="67.5" spans="1:9">
-      <c r="A30" s="134"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="130" t="s">
+      <c r="A30" s="136"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="117">
+      <c r="D30" s="119">
         <v>1</v>
       </c>
-      <c r="E30" s="117" t="s">
+      <c r="E30" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="131" t="s">
+      <c r="F30" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="132" t="s">
+      <c r="G30" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="136"/>
-      <c r="I30" s="154" t="s">
+      <c r="H30" s="138"/>
+      <c r="I30" s="156" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" s="113" customFormat="1" ht="12" customHeight="1" spans="1:9">
-      <c r="A31" s="134"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="139" t="s">
+    <row r="31" s="115" customFormat="1" ht="12" customHeight="1" spans="1:9">
+      <c r="A31" s="136"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="140">
+      <c r="D31" s="142">
         <v>1</v>
       </c>
-      <c r="E31" s="140"/>
-      <c r="F31" s="141" t="s">
+      <c r="E31" s="142"/>
+      <c r="F31" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="142" t="s">
+      <c r="G31" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="H31" s="136"/>
-      <c r="I31" s="156"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="158"/>
     </row>
     <row r="32" hidden="1" spans="1:9">
-      <c r="A32" s="134"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="130" t="s">
+      <c r="A32" s="136"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117" t="s">
+      <c r="D32" s="119"/>
+      <c r="E32" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="131" t="s">
+      <c r="F32" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="132" t="s">
+      <c r="G32" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="136"/>
-      <c r="I32" s="154"/>
-    </row>
-    <row r="33" s="114" customFormat="1" spans="1:9">
-      <c r="A33" s="145"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="147" t="s">
+      <c r="H32" s="138"/>
+      <c r="I32" s="156"/>
+    </row>
+    <row r="33" s="116" customFormat="1" spans="1:9">
+      <c r="A33" s="147"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148" t="s">
+      <c r="D33" s="150"/>
+      <c r="E33" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="F33" s="146" t="s">
+      <c r="F33" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="149" t="s">
+      <c r="G33" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="150"/>
-      <c r="I33" s="157"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="159"/>
     </row>
     <row r="34" ht="67.5" spans="1:9">
-      <c r="A34" s="134"/>
-      <c r="B34" s="131"/>
-      <c r="C34" s="130" t="s">
+      <c r="A34" s="136"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="117">
+      <c r="D34" s="119">
         <v>1</v>
       </c>
-      <c r="E34" s="117" t="s">
+      <c r="E34" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="131" t="s">
+      <c r="F34" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="132" t="s">
+      <c r="G34" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="136"/>
-      <c r="I34" s="154" t="s">
+      <c r="H34" s="138"/>
+      <c r="I34" s="156" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" s="113" customFormat="1" spans="1:9">
-      <c r="A35" s="134"/>
-      <c r="B35" s="131"/>
-      <c r="C35" s="139" t="s">
+    <row r="35" s="115" customFormat="1" spans="1:9">
+      <c r="A35" s="136"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="140">
+      <c r="D35" s="142">
         <v>1</v>
       </c>
-      <c r="E35" s="140"/>
-      <c r="F35" s="141" t="s">
+      <c r="E35" s="142"/>
+      <c r="F35" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="142" t="s">
+      <c r="G35" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="H35" s="136"/>
-      <c r="I35" s="156"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="158"/>
     </row>
     <row r="36" ht="27" spans="1:9">
-      <c r="A36" s="134"/>
-      <c r="B36" s="137" t="s">
+      <c r="A36" s="136"/>
+      <c r="B36" s="139" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="130" t="s">
+      <c r="C36" s="132" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="117">
+      <c r="D36" s="119">
         <v>1</v>
       </c>
-      <c r="E36" s="117" t="s">
+      <c r="E36" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="131" t="s">
+      <c r="F36" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="132" t="s">
+      <c r="G36" s="134" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="136"/>
-      <c r="I36" s="154" t="s">
+      <c r="H36" s="138"/>
+      <c r="I36" s="156" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:9">
-      <c r="A37" s="134"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="151" t="s">
+      <c r="A37" s="136"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="117">
+      <c r="D37" s="119">
         <v>1</v>
       </c>
-      <c r="E37" s="117" t="s">
+      <c r="E37" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="131" t="s">
+      <c r="F37" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="G37" s="135" t="s">
+      <c r="G37" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="136"/>
-      <c r="I37" s="154" t="s">
+      <c r="H37" s="138"/>
+      <c r="I37" s="156" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" ht="67.5" spans="1:9">
-      <c r="A38" s="134"/>
-      <c r="B38" s="138"/>
-      <c r="C38" s="130" t="s">
+      <c r="A38" s="136"/>
+      <c r="B38" s="140"/>
+      <c r="C38" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="117">
+      <c r="D38" s="119">
         <v>1</v>
       </c>
-      <c r="E38" s="117" t="s">
+      <c r="E38" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="F38" s="131" t="s">
+      <c r="F38" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="132" t="s">
+      <c r="G38" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="H38" s="136"/>
-      <c r="I38" s="154" t="s">
+      <c r="H38" s="138"/>
+      <c r="I38" s="156" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" s="113" customFormat="1" spans="1:9">
-      <c r="A39" s="134"/>
-      <c r="B39" s="138"/>
-      <c r="C39" s="139" t="s">
+    <row r="39" s="115" customFormat="1" spans="1:9">
+      <c r="A39" s="136"/>
+      <c r="B39" s="140"/>
+      <c r="C39" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="140">
+      <c r="D39" s="142">
         <v>1</v>
       </c>
-      <c r="E39" s="140"/>
-      <c r="F39" s="141" t="s">
+      <c r="E39" s="142"/>
+      <c r="F39" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="G39" s="142" t="s">
+      <c r="G39" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="H39" s="136"/>
-      <c r="I39" s="156"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="158"/>
     </row>
     <row r="40" ht="22.2" customHeight="1" spans="1:9">
-      <c r="A40" s="134"/>
-      <c r="B40" s="138"/>
-      <c r="C40" s="130" t="s">
+      <c r="A40" s="136"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="117">
+      <c r="D40" s="119">
         <v>1</v>
       </c>
-      <c r="E40" s="117" t="s">
+      <c r="E40" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="131" t="s">
+      <c r="F40" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="G40" s="132" t="s">
+      <c r="G40" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="H40" s="136"/>
-      <c r="I40" s="154" t="s">
+      <c r="H40" s="138"/>
+      <c r="I40" s="156" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="41" ht="40.5" spans="1:9">
-      <c r="A41" s="134"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="130" t="s">
+      <c r="A41" s="136"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="117">
+      <c r="D41" s="119">
         <v>1</v>
       </c>
-      <c r="E41" s="117" t="s">
+      <c r="E41" s="119" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="131" t="s">
+      <c r="F41" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="G41" s="132" t="s">
+      <c r="G41" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="136"/>
-      <c r="I41" s="154" t="s">
+      <c r="H41" s="138"/>
+      <c r="I41" s="156" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42" ht="40.5" spans="1:9">
-      <c r="A42" s="134"/>
-      <c r="B42" s="138"/>
-      <c r="C42" s="130" t="s">
+      <c r="A42" s="136"/>
+      <c r="B42" s="140"/>
+      <c r="C42" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="117">
+      <c r="D42" s="119">
         <v>1</v>
       </c>
-      <c r="E42" s="117" t="s">
+      <c r="E42" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="131" t="s">
+      <c r="F42" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="G42" s="132" t="s">
+      <c r="G42" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="136"/>
-      <c r="I42" s="154" t="s">
+      <c r="H42" s="138"/>
+      <c r="I42" s="156" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="43" ht="27" spans="1:9">
-      <c r="A43" s="134"/>
-      <c r="B43" s="144"/>
-      <c r="C43" s="130" t="s">
+      <c r="A43" s="136"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="117">
+      <c r="D43" s="119">
         <v>1</v>
       </c>
-      <c r="E43" s="117" t="s">
+      <c r="E43" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="F43" s="131" t="s">
+      <c r="F43" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="G43" s="132" t="s">
+      <c r="G43" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="H43" s="136"/>
-      <c r="I43" s="154" t="s">
+      <c r="H43" s="138"/>
+      <c r="I43" s="156" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:9">
-      <c r="A44" s="134"/>
-      <c r="B44" s="131" t="s">
+      <c r="A44" s="136"/>
+      <c r="B44" s="133" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="130" t="s">
+      <c r="C44" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="117">
+      <c r="D44" s="119">
         <v>1</v>
       </c>
-      <c r="E44" s="117" t="s">
+      <c r="E44" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="F44" s="131" t="s">
+      <c r="F44" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="135" t="s">
+      <c r="G44" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="136"/>
-      <c r="I44" s="154" t="s">
+      <c r="H44" s="138"/>
+      <c r="I44" s="156" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="45" ht="27" spans="1:9">
-      <c r="A45" s="134"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="130" t="s">
+      <c r="A45" s="136"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="117">
+      <c r="D45" s="119">
         <v>1</v>
       </c>
-      <c r="E45" s="117" t="s">
+      <c r="E45" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="131" t="s">
+      <c r="F45" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="G45" s="132" t="s">
+      <c r="G45" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="H45" s="136"/>
-      <c r="I45" s="154" t="s">
+      <c r="H45" s="138"/>
+      <c r="I45" s="156" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" ht="67.5" spans="1:9">
-      <c r="A46" s="134"/>
-      <c r="B46" s="131"/>
-      <c r="C46" s="130" t="s">
+      <c r="A46" s="136"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="117">
+      <c r="D46" s="119">
         <v>1</v>
       </c>
-      <c r="E46" s="117" t="s">
+      <c r="E46" s="119" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="131" t="s">
+      <c r="F46" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="G46" s="135" t="s">
+      <c r="G46" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="H46" s="136"/>
-      <c r="I46" s="154" t="s">
+      <c r="H46" s="138"/>
+      <c r="I46" s="156" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" s="113" customFormat="1" spans="1:9">
-      <c r="A47" s="134"/>
-      <c r="B47" s="131"/>
-      <c r="C47" s="139" t="s">
+    <row r="47" s="115" customFormat="1" spans="1:9">
+      <c r="A47" s="136"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="140">
+      <c r="D47" s="142">
         <v>1</v>
       </c>
-      <c r="E47" s="140"/>
-      <c r="F47" s="141" t="s">
+      <c r="E47" s="142"/>
+      <c r="F47" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="G47" s="142" t="s">
+      <c r="G47" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="H47" s="136"/>
-      <c r="I47" s="156"/>
+      <c r="H47" s="138"/>
+      <c r="I47" s="158"/>
     </row>
     <row r="48" ht="67.5" spans="1:9">
-      <c r="A48" s="134"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="130" t="s">
+      <c r="A48" s="136"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="117">
+      <c r="D48" s="119">
         <v>1</v>
       </c>
-      <c r="E48" s="117" t="s">
+      <c r="E48" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="F48" s="131" t="s">
+      <c r="F48" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="G48" s="132" t="s">
+      <c r="G48" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="H48" s="136"/>
-      <c r="I48" s="154" t="s">
+      <c r="H48" s="138"/>
+      <c r="I48" s="156" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="49" ht="67.5" spans="1:9">
-      <c r="A49" s="134"/>
-      <c r="B49" s="131"/>
-      <c r="C49" s="130" t="s">
+      <c r="A49" s="136"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="117">
+      <c r="D49" s="119">
         <v>1</v>
       </c>
-      <c r="E49" s="117" t="s">
+      <c r="E49" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="F49" s="131" t="s">
+      <c r="F49" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="G49" s="132" t="s">
+      <c r="G49" s="134" t="s">
         <v>148</v>
       </c>
-      <c r="H49" s="136"/>
-      <c r="I49" s="154" t="s">
+      <c r="H49" s="138"/>
+      <c r="I49" s="156" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="50" ht="162" spans="1:9">
-      <c r="A50" s="134"/>
-      <c r="B50" s="131"/>
-      <c r="C50" s="130" t="s">
+      <c r="A50" s="136"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="D50" s="117">
+      <c r="D50" s="119">
         <v>1</v>
       </c>
-      <c r="E50" s="117" t="s">
+      <c r="E50" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="F50" s="131" t="s">
+      <c r="F50" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="G50" s="135" t="s">
+      <c r="G50" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="H50" s="136"/>
-      <c r="I50" s="154" t="s">
+      <c r="H50" s="138"/>
+      <c r="I50" s="156" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" s="113" customFormat="1" spans="1:9">
-      <c r="A51" s="134"/>
-      <c r="B51" s="131"/>
-      <c r="C51" s="139" t="s">
+    <row r="51" s="115" customFormat="1" spans="1:9">
+      <c r="A51" s="136"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="140">
+      <c r="D51" s="142">
         <v>1</v>
       </c>
-      <c r="E51" s="140"/>
-      <c r="F51" s="141" t="s">
+      <c r="E51" s="142"/>
+      <c r="F51" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="G51" s="142" t="s">
+      <c r="G51" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="136"/>
-      <c r="I51" s="156"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="158"/>
     </row>
     <row r="52" ht="94.5" spans="1:9">
-      <c r="A52" s="134"/>
-      <c r="B52" s="131"/>
-      <c r="C52" s="130" t="s">
+      <c r="A52" s="136"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="117">
+      <c r="D52" s="119">
         <v>1</v>
       </c>
-      <c r="E52" s="117" t="s">
+      <c r="E52" s="119" t="s">
         <v>154</v>
       </c>
-      <c r="F52" s="131" t="s">
+      <c r="F52" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="132" t="s">
+      <c r="G52" s="134" t="s">
         <v>155</v>
       </c>
-      <c r="H52" s="136"/>
-      <c r="I52" s="154" t="s">
+      <c r="H52" s="138"/>
+      <c r="I52" s="156" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="53" ht="94.5" spans="1:9">
-      <c r="A53" s="134"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="130" t="s">
+      <c r="A53" s="136"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="117">
+      <c r="D53" s="119">
         <v>1</v>
       </c>
-      <c r="E53" s="117" t="s">
+      <c r="E53" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="F53" s="131" t="s">
+      <c r="F53" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="G53" s="132" t="s">
+      <c r="G53" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="H53" s="136"/>
-      <c r="I53" s="154" t="s">
+      <c r="H53" s="138"/>
+      <c r="I53" s="156" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="54" ht="189" spans="1:9">
-      <c r="A54" s="134"/>
-      <c r="B54" s="131"/>
-      <c r="C54" s="130" t="s">
+      <c r="A54" s="136"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="117">
+      <c r="D54" s="119">
         <v>1</v>
       </c>
-      <c r="E54" s="117" t="s">
+      <c r="E54" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="F54" s="131" t="s">
+      <c r="F54" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="G54" s="135" t="s">
+      <c r="G54" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="H54" s="136"/>
-      <c r="I54" s="154" t="s">
+      <c r="H54" s="138"/>
+      <c r="I54" s="156" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" s="113" customFormat="1" spans="1:9">
-      <c r="A55" s="134"/>
-      <c r="B55" s="131"/>
-      <c r="C55" s="139" t="s">
+    <row r="55" s="115" customFormat="1" spans="1:9">
+      <c r="A55" s="136"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="140">
+      <c r="D55" s="142">
         <v>1</v>
       </c>
-      <c r="E55" s="140"/>
-      <c r="F55" s="141" t="s">
+      <c r="E55" s="142"/>
+      <c r="F55" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="G55" s="142" t="s">
+      <c r="G55" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="H55" s="136"/>
-      <c r="I55" s="156"/>
+      <c r="H55" s="138"/>
+      <c r="I55" s="158"/>
     </row>
     <row r="56" hidden="1" spans="1:9">
-      <c r="A56" s="134"/>
-      <c r="B56" s="131" t="s">
+      <c r="A56" s="136"/>
+      <c r="B56" s="133" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="130" t="s">
+      <c r="C56" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="117"/>
-      <c r="E56" s="117" t="s">
+      <c r="D56" s="119"/>
+      <c r="E56" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="F56" s="131" t="s">
+      <c r="F56" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="G56" s="132" t="s">
+      <c r="G56" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="H56" s="136"/>
-      <c r="I56" s="154"/>
-    </row>
-    <row r="57" s="114" customFormat="1" spans="1:9">
-      <c r="A57" s="145"/>
-      <c r="B57" s="146"/>
-      <c r="C57" s="147" t="s">
+      <c r="H56" s="138"/>
+      <c r="I56" s="156"/>
+    </row>
+    <row r="57" s="116" customFormat="1" spans="1:9">
+      <c r="A57" s="147"/>
+      <c r="B57" s="148"/>
+      <c r="C57" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="148"/>
-      <c r="E57" s="148" t="s">
+      <c r="D57" s="150"/>
+      <c r="E57" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="F57" s="146" t="s">
+      <c r="F57" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="G57" s="149" t="s">
+      <c r="G57" s="151" t="s">
         <v>165</v>
       </c>
-      <c r="H57" s="150"/>
-      <c r="I57" s="157"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="159"/>
     </row>
     <row r="58" ht="67.5" spans="1:9">
-      <c r="A58" s="134"/>
-      <c r="B58" s="131"/>
-      <c r="C58" s="130" t="s">
+      <c r="A58" s="136"/>
+      <c r="B58" s="133"/>
+      <c r="C58" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="117">
+      <c r="D58" s="119">
         <v>1</v>
       </c>
-      <c r="E58" s="117" t="s">
+      <c r="E58" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="F58" s="131" t="s">
+      <c r="F58" s="133" t="s">
         <v>167</v>
       </c>
-      <c r="G58" s="132" t="s">
+      <c r="G58" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="H58" s="136"/>
-      <c r="I58" s="154" t="s">
+      <c r="H58" s="138"/>
+      <c r="I58" s="156" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="59" s="113" customFormat="1" spans="1:9">
-      <c r="A59" s="134"/>
-      <c r="B59" s="131"/>
-      <c r="C59" s="139" t="s">
+    <row r="59" s="115" customFormat="1" spans="1:9">
+      <c r="A59" s="136"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="140">
+      <c r="D59" s="142">
         <v>1</v>
       </c>
-      <c r="E59" s="140"/>
-      <c r="F59" s="141" t="s">
+      <c r="E59" s="142"/>
+      <c r="F59" s="143" t="s">
         <v>169</v>
       </c>
-      <c r="G59" s="142" t="s">
+      <c r="G59" s="144" t="s">
         <v>169</v>
       </c>
-      <c r="H59" s="136"/>
-      <c r="I59" s="156"/>
+      <c r="H59" s="138"/>
+      <c r="I59" s="158"/>
     </row>
     <row r="60" hidden="1" spans="1:9">
-      <c r="A60" s="134"/>
-      <c r="B60" s="131"/>
-      <c r="C60" s="130" t="s">
+      <c r="A60" s="136"/>
+      <c r="B60" s="133"/>
+      <c r="C60" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117" t="s">
+      <c r="D60" s="119"/>
+      <c r="E60" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="F60" s="131" t="s">
+      <c r="F60" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="G60" s="132" t="s">
+      <c r="G60" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="H60" s="136"/>
-      <c r="I60" s="154"/>
-    </row>
-    <row r="61" s="114" customFormat="1" spans="1:9">
-      <c r="A61" s="145"/>
-      <c r="B61" s="146"/>
-      <c r="C61" s="147" t="s">
+      <c r="H60" s="138"/>
+      <c r="I60" s="156"/>
+    </row>
+    <row r="61" s="116" customFormat="1" spans="1:9">
+      <c r="A61" s="147"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="149" t="s">
         <v>84</v>
       </c>
-      <c r="D61" s="148"/>
-      <c r="E61" s="148" t="s">
+      <c r="D61" s="150"/>
+      <c r="E61" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="F61" s="146" t="s">
+      <c r="F61" s="148" t="s">
         <v>170</v>
       </c>
-      <c r="G61" s="149" t="s">
+      <c r="G61" s="151" t="s">
         <v>170</v>
       </c>
-      <c r="H61" s="150"/>
-      <c r="I61" s="157"/>
+      <c r="H61" s="152"/>
+      <c r="I61" s="159"/>
     </row>
     <row r="62" ht="67.5" spans="1:9">
-      <c r="A62" s="134"/>
-      <c r="B62" s="131"/>
-      <c r="C62" s="130" t="s">
+      <c r="A62" s="136"/>
+      <c r="B62" s="133"/>
+      <c r="C62" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="117">
+      <c r="D62" s="119">
         <v>1</v>
       </c>
-      <c r="E62" s="117" t="s">
+      <c r="E62" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="F62" s="131" t="s">
+      <c r="F62" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="G62" s="132" t="s">
+      <c r="G62" s="134" t="s">
         <v>172</v>
       </c>
-      <c r="H62" s="136"/>
-      <c r="I62" s="154" t="s">
+      <c r="H62" s="138"/>
+      <c r="I62" s="156" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="63" s="113" customFormat="1" spans="1:9">
-      <c r="A63" s="134"/>
-      <c r="B63" s="131"/>
-      <c r="C63" s="139" t="s">
+    <row r="63" s="115" customFormat="1" spans="1:9">
+      <c r="A63" s="136"/>
+      <c r="B63" s="133"/>
+      <c r="C63" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="140">
+      <c r="D63" s="142">
         <v>1</v>
       </c>
-      <c r="E63" s="140"/>
-      <c r="F63" s="141" t="s">
+      <c r="E63" s="142"/>
+      <c r="F63" s="143" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="142" t="s">
+      <c r="G63" s="144" t="s">
         <v>174</v>
       </c>
-      <c r="H63" s="136"/>
-      <c r="I63" s="156"/>
+      <c r="H63" s="138"/>
+      <c r="I63" s="158"/>
     </row>
     <row r="64" hidden="1" spans="1:9">
-      <c r="A64" s="134"/>
-      <c r="B64" s="131"/>
-      <c r="C64" s="130" t="s">
+      <c r="A64" s="136"/>
+      <c r="B64" s="133"/>
+      <c r="C64" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117" t="s">
+      <c r="D64" s="119"/>
+      <c r="E64" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="131" t="s">
+      <c r="F64" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="132" t="s">
+      <c r="G64" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="H64" s="136"/>
-      <c r="I64" s="154"/>
-    </row>
-    <row r="65" s="114" customFormat="1" spans="1:9">
-      <c r="A65" s="145"/>
-      <c r="B65" s="146"/>
-      <c r="C65" s="147" t="s">
+      <c r="H64" s="138"/>
+      <c r="I64" s="156"/>
+    </row>
+    <row r="65" s="116" customFormat="1" spans="1:9">
+      <c r="A65" s="147"/>
+      <c r="B65" s="148"/>
+      <c r="C65" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="148"/>
-      <c r="E65" s="148" t="s">
+      <c r="D65" s="150"/>
+      <c r="E65" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="F65" s="146" t="s">
+      <c r="F65" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="G65" s="149" t="s">
+      <c r="G65" s="151" t="s">
         <v>175</v>
       </c>
-      <c r="H65" s="150"/>
-      <c r="I65" s="157"/>
+      <c r="H65" s="152"/>
+      <c r="I65" s="159"/>
     </row>
     <row r="66" ht="67.5" spans="1:9">
-      <c r="A66" s="134"/>
-      <c r="B66" s="131"/>
-      <c r="C66" s="130" t="s">
+      <c r="A66" s="136"/>
+      <c r="B66" s="133"/>
+      <c r="C66" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="D66" s="117">
+      <c r="D66" s="119">
         <v>1</v>
       </c>
-      <c r="E66" s="117" t="s">
+      <c r="E66" s="119" t="s">
         <v>176</v>
       </c>
-      <c r="F66" s="131" t="s">
+      <c r="F66" s="133" t="s">
         <v>177</v>
       </c>
-      <c r="G66" s="132" t="s">
+      <c r="G66" s="134" t="s">
         <v>177</v>
       </c>
-      <c r="H66" s="136"/>
-      <c r="I66" s="154" t="s">
+      <c r="H66" s="138"/>
+      <c r="I66" s="156" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="67" s="115" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A67" s="158"/>
-      <c r="B67" s="159"/>
-      <c r="C67" s="160" t="s">
+    <row r="67" s="117" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A67" s="160"/>
+      <c r="B67" s="161"/>
+      <c r="C67" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="161">
+      <c r="D67" s="163">
         <v>1</v>
       </c>
-      <c r="E67" s="161"/>
-      <c r="F67" s="162" t="s">
+      <c r="E67" s="163"/>
+      <c r="F67" s="164" t="s">
         <v>179</v>
       </c>
-      <c r="G67" s="163" t="s">
+      <c r="G67" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="H67" s="164"/>
-      <c r="I67" s="185"/>
+      <c r="H67" s="166"/>
+      <c r="I67" s="187"/>
     </row>
     <row r="68" ht="17.25" hidden="1" spans="1:9">
-      <c r="A68" s="165"/>
-      <c r="B68" s="144" t="s">
+      <c r="A68" s="167"/>
+      <c r="B68" s="146" t="s">
         <v>180</v>
       </c>
-      <c r="C68" s="166" t="s">
+      <c r="C68" s="168" t="s">
         <v>104</v>
       </c>
-      <c r="D68" s="167"/>
-      <c r="E68" s="167" t="s">
+      <c r="D68" s="169"/>
+      <c r="E68" s="169" t="s">
         <v>105</v>
       </c>
-      <c r="F68" s="144" t="s">
+      <c r="F68" s="146" t="s">
         <v>181</v>
       </c>
-      <c r="G68" s="168" t="s">
+      <c r="G68" s="170" t="s">
         <v>181</v>
       </c>
-      <c r="H68" s="136"/>
-      <c r="I68" s="186"/>
+      <c r="H68" s="138"/>
+      <c r="I68" s="188"/>
     </row>
     <row r="69" ht="17.25" hidden="1" spans="1:9">
-      <c r="A69" s="165"/>
-      <c r="B69" s="131"/>
-      <c r="C69" s="151" t="s">
+      <c r="A69" s="167"/>
+      <c r="B69" s="133"/>
+      <c r="C69" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="117"/>
-      <c r="E69" s="117" t="s">
+      <c r="D69" s="119"/>
+      <c r="E69" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="F69" s="131" t="s">
+      <c r="F69" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="132" t="s">
+      <c r="G69" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="H69" s="136"/>
-      <c r="I69" s="154"/>
+      <c r="H69" s="138"/>
+      <c r="I69" s="156"/>
     </row>
     <row r="70" hidden="1" spans="1:9">
-      <c r="A70" s="165"/>
-      <c r="B70" s="131"/>
-      <c r="C70" s="130" t="s">
+      <c r="A70" s="167"/>
+      <c r="B70" s="133"/>
+      <c r="C70" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="D70" s="117"/>
-      <c r="E70" s="117" t="s">
+      <c r="D70" s="119"/>
+      <c r="E70" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="F70" s="131" t="s">
+      <c r="F70" s="133" t="s">
         <v>183</v>
       </c>
-      <c r="G70" s="132" t="s">
+      <c r="G70" s="134" t="s">
         <v>183</v>
       </c>
-      <c r="H70" s="136"/>
-      <c r="I70" s="154"/>
+      <c r="H70" s="138"/>
+      <c r="I70" s="156"/>
     </row>
     <row r="71" ht="14.25" hidden="1" spans="1:9">
-      <c r="A71" s="165"/>
-      <c r="B71" s="137"/>
-      <c r="C71" s="169" t="s">
+      <c r="A71" s="167"/>
+      <c r="B71" s="139"/>
+      <c r="C71" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="D71" s="170"/>
-      <c r="E71" s="170"/>
-      <c r="F71" s="137"/>
-      <c r="G71" s="171"/>
-      <c r="H71" s="136"/>
-      <c r="I71" s="187"/>
-    </row>
-    <row r="72" s="112" customFormat="1" spans="1:9">
-      <c r="A72" s="172" t="s">
+      <c r="D71" s="172"/>
+      <c r="E71" s="172"/>
+      <c r="F71" s="139"/>
+      <c r="G71" s="173"/>
+      <c r="H71" s="138"/>
+      <c r="I71" s="189"/>
+    </row>
+    <row r="72" s="114" customFormat="1" spans="1:9">
+      <c r="A72" s="174" t="s">
         <v>184</v>
       </c>
-      <c r="B72" s="173" t="s">
+      <c r="B72" s="175" t="s">
         <v>185</v>
       </c>
-      <c r="C72" s="174" t="s">
+      <c r="C72" s="176" t="s">
         <v>74</v>
       </c>
-      <c r="D72" s="175">
+      <c r="D72" s="177">
         <v>1</v>
       </c>
-      <c r="E72" s="175" t="s">
+      <c r="E72" s="177" t="s">
         <v>186</v>
       </c>
-      <c r="F72" s="173" t="s">
+      <c r="F72" s="175" t="s">
         <v>187</v>
       </c>
-      <c r="G72" s="173" t="s">
+      <c r="G72" s="175" t="s">
         <v>187</v>
       </c>
-      <c r="H72" s="176" t="s">
+      <c r="H72" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="I72" s="188"/>
+      <c r="I72" s="190"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="177"/>
-      <c r="B73" s="131"/>
-      <c r="C73" s="130" t="s">
+      <c r="A73" s="179"/>
+      <c r="B73" s="133"/>
+      <c r="C73" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="117">
+      <c r="D73" s="119">
         <v>1</v>
       </c>
-      <c r="E73" s="117" t="s">
+      <c r="E73" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="F73" s="131" t="s">
+      <c r="F73" s="133" t="s">
         <v>190</v>
       </c>
-      <c r="G73" s="131" t="s">
+      <c r="G73" s="133" t="s">
         <v>190</v>
       </c>
-      <c r="H73" s="138"/>
-      <c r="I73" s="118"/>
+      <c r="H73" s="140"/>
+      <c r="I73" s="120"/>
     </row>
     <row r="74" hidden="1" spans="1:9">
-      <c r="A74" s="177"/>
-      <c r="B74" s="131"/>
-      <c r="C74" s="130" t="s">
+      <c r="A74" s="179"/>
+      <c r="B74" s="133"/>
+      <c r="C74" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="117"/>
-      <c r="E74" s="117"/>
-      <c r="F74" s="131"/>
-      <c r="G74" s="131"/>
-      <c r="H74" s="138"/>
-      <c r="I74" s="118"/>
+      <c r="D74" s="119"/>
+      <c r="E74" s="119"/>
+      <c r="F74" s="133"/>
+      <c r="G74" s="133"/>
+      <c r="H74" s="140"/>
+      <c r="I74" s="120"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="177"/>
-      <c r="B75" s="131"/>
-      <c r="C75" s="130" t="s">
+      <c r="A75" s="179"/>
+      <c r="B75" s="133"/>
+      <c r="C75" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="D75" s="117">
+      <c r="D75" s="119">
         <v>1</v>
       </c>
-      <c r="E75" s="117" t="s">
+      <c r="E75" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="F75" s="131" t="s">
+      <c r="F75" s="133" t="s">
         <v>192</v>
       </c>
-      <c r="G75" s="131" t="s">
+      <c r="G75" s="133" t="s">
         <v>192</v>
       </c>
-      <c r="H75" s="138"/>
-      <c r="I75" s="118"/>
+      <c r="H75" s="140"/>
+      <c r="I75" s="120"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="177"/>
-      <c r="B76" s="131"/>
-      <c r="C76" s="130" t="s">
+      <c r="A76" s="179"/>
+      <c r="B76" s="133"/>
+      <c r="C76" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="D76" s="117">
+      <c r="D76" s="119">
         <v>1</v>
       </c>
-      <c r="E76" s="117" t="s">
+      <c r="E76" s="119" t="s">
         <v>193</v>
       </c>
-      <c r="F76" s="131" t="s">
+      <c r="F76" s="133" t="s">
         <v>194</v>
       </c>
-      <c r="G76" s="131" t="s">
+      <c r="G76" s="133" t="s">
         <v>194</v>
       </c>
-      <c r="H76" s="138"/>
-      <c r="I76" s="118"/>
+      <c r="H76" s="140"/>
+      <c r="I76" s="120"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="177"/>
-      <c r="B77" s="131"/>
-      <c r="C77" s="130" t="s">
+      <c r="A77" s="179"/>
+      <c r="B77" s="133"/>
+      <c r="C77" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="117">
+      <c r="D77" s="119">
         <v>1</v>
       </c>
-      <c r="E77" s="117" t="s">
+      <c r="E77" s="119" t="s">
         <v>195</v>
       </c>
-      <c r="F77" s="131" t="s">
+      <c r="F77" s="133" t="s">
         <v>196</v>
       </c>
-      <c r="G77" s="131" t="s">
+      <c r="G77" s="133" t="s">
         <v>196</v>
       </c>
-      <c r="H77" s="138"/>
-      <c r="I77" s="118"/>
+      <c r="H77" s="140"/>
+      <c r="I77" s="120"/>
     </row>
     <row r="78" hidden="1" spans="1:9">
-      <c r="A78" s="177"/>
-      <c r="B78" s="131"/>
-      <c r="C78" s="130" t="s">
+      <c r="A78" s="179"/>
+      <c r="B78" s="133"/>
+      <c r="C78" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="D78" s="117"/>
-      <c r="E78" s="117"/>
-      <c r="F78" s="131"/>
-      <c r="G78" s="131"/>
-      <c r="H78" s="138"/>
-      <c r="I78" s="118"/>
+      <c r="D78" s="119"/>
+      <c r="E78" s="119"/>
+      <c r="F78" s="133"/>
+      <c r="G78" s="133"/>
+      <c r="H78" s="140"/>
+      <c r="I78" s="120"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="177"/>
-      <c r="B79" s="131"/>
-      <c r="C79" s="130" t="s">
+      <c r="A79" s="179"/>
+      <c r="B79" s="133"/>
+      <c r="C79" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="D79" s="117">
+      <c r="D79" s="119">
         <v>1</v>
       </c>
-      <c r="E79" s="117" t="s">
+      <c r="E79" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="F79" s="131" t="s">
+      <c r="F79" s="133" t="s">
         <v>192</v>
       </c>
-      <c r="G79" s="131" t="s">
+      <c r="G79" s="133" t="s">
         <v>192</v>
       </c>
-      <c r="H79" s="138"/>
-      <c r="I79" s="118"/>
+      <c r="H79" s="140"/>
+      <c r="I79" s="120"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="177"/>
-      <c r="B80" s="131"/>
-      <c r="C80" s="130" t="s">
+      <c r="A80" s="179"/>
+      <c r="B80" s="133"/>
+      <c r="C80" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="D80" s="117">
+      <c r="D80" s="119">
         <v>1</v>
       </c>
-      <c r="E80" s="117" t="s">
+      <c r="E80" s="119" t="s">
         <v>197</v>
       </c>
-      <c r="F80" s="131" t="s">
+      <c r="F80" s="133" t="s">
         <v>198</v>
       </c>
-      <c r="G80" s="131" t="s">
+      <c r="G80" s="133" t="s">
         <v>198</v>
       </c>
-      <c r="H80" s="138"/>
-      <c r="I80" s="118"/>
+      <c r="H80" s="140"/>
+      <c r="I80" s="120"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="177"/>
-      <c r="B81" s="131"/>
-      <c r="C81" s="130" t="s">
+      <c r="A81" s="179"/>
+      <c r="B81" s="133"/>
+      <c r="C81" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="D81" s="117">
+      <c r="D81" s="119">
         <v>1</v>
       </c>
-      <c r="E81" s="117" t="s">
+      <c r="E81" s="119" t="s">
         <v>199</v>
       </c>
-      <c r="F81" s="131" t="s">
+      <c r="F81" s="133" t="s">
         <v>200</v>
       </c>
-      <c r="G81" s="131" t="s">
+      <c r="G81" s="133" t="s">
         <v>200</v>
       </c>
-      <c r="H81" s="138"/>
-      <c r="I81" s="118"/>
+      <c r="H81" s="140"/>
+      <c r="I81" s="120"/>
     </row>
     <row r="82" hidden="1" spans="1:9">
-      <c r="A82" s="177"/>
-      <c r="B82" s="131"/>
-      <c r="C82" s="130" t="s">
+      <c r="A82" s="179"/>
+      <c r="B82" s="133"/>
+      <c r="C82" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="D82" s="117"/>
-      <c r="E82" s="117"/>
-      <c r="F82" s="131"/>
-      <c r="G82" s="131"/>
-      <c r="H82" s="138"/>
-      <c r="I82" s="118"/>
+      <c r="D82" s="119"/>
+      <c r="E82" s="119"/>
+      <c r="F82" s="133"/>
+      <c r="G82" s="133"/>
+      <c r="H82" s="140"/>
+      <c r="I82" s="120"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="177"/>
-      <c r="B83" s="131" t="s">
+      <c r="A83" s="179"/>
+      <c r="B83" s="133" t="s">
         <v>201</v>
       </c>
-      <c r="C83" s="130" t="s">
+      <c r="C83" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="D83" s="117">
+      <c r="D83" s="119">
         <v>1</v>
       </c>
-      <c r="E83" s="117" t="s">
+      <c r="E83" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="F83" s="131" t="s">
+      <c r="F83" s="133" t="s">
         <v>192</v>
       </c>
-      <c r="G83" s="131" t="s">
+      <c r="G83" s="133" t="s">
         <v>192</v>
       </c>
-      <c r="H83" s="138"/>
-      <c r="I83" s="118"/>
+      <c r="H83" s="140"/>
+      <c r="I83" s="120"/>
     </row>
     <row r="84" ht="12" customHeight="1" spans="1:9">
-      <c r="A84" s="177"/>
-      <c r="B84" s="131"/>
-      <c r="C84" s="130" t="s">
+      <c r="A84" s="179"/>
+      <c r="B84" s="133"/>
+      <c r="C84" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="D84" s="117">
+      <c r="D84" s="119">
         <v>1</v>
       </c>
-      <c r="E84" s="117" t="s">
+      <c r="E84" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="F84" s="131" t="s">
+      <c r="F84" s="133" t="s">
         <v>204</v>
       </c>
-      <c r="G84" s="131" t="s">
+      <c r="G84" s="133" t="s">
         <v>204</v>
       </c>
-      <c r="H84" s="138"/>
-      <c r="I84" s="118"/>
+      <c r="H84" s="140"/>
+      <c r="I84" s="120"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="177"/>
-      <c r="B85" s="131"/>
-      <c r="C85" s="130" t="s">
+      <c r="A85" s="179"/>
+      <c r="B85" s="133"/>
+      <c r="C85" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="D85" s="117">
+      <c r="D85" s="119">
         <v>1</v>
       </c>
-      <c r="E85" s="117" t="s">
+      <c r="E85" s="119" t="s">
         <v>205</v>
       </c>
-      <c r="F85" s="131" t="s">
+      <c r="F85" s="133" t="s">
         <v>206</v>
       </c>
-      <c r="G85" s="131" t="s">
+      <c r="G85" s="133" t="s">
         <v>206</v>
       </c>
-      <c r="H85" s="138"/>
-      <c r="I85" s="118"/>
+      <c r="H85" s="140"/>
+      <c r="I85" s="120"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="177"/>
-      <c r="B86" s="131"/>
-      <c r="C86" s="130" t="s">
+      <c r="A86" s="179"/>
+      <c r="B86" s="133"/>
+      <c r="C86" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="D86" s="117">
+      <c r="D86" s="119">
         <v>1</v>
       </c>
-      <c r="E86" s="117" t="s">
+      <c r="E86" s="119" t="s">
         <v>207</v>
       </c>
-      <c r="F86" s="131" t="s">
+      <c r="F86" s="133" t="s">
         <v>208</v>
       </c>
-      <c r="G86" s="131" t="s">
+      <c r="G86" s="133" t="s">
         <v>208</v>
       </c>
-      <c r="H86" s="138"/>
-      <c r="I86" s="118"/>
+      <c r="H86" s="140"/>
+      <c r="I86" s="120"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="177"/>
-      <c r="B87" s="131"/>
-      <c r="C87" s="130" t="s">
+      <c r="A87" s="179"/>
+      <c r="B87" s="133"/>
+      <c r="C87" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="D87" s="117">
+      <c r="D87" s="119">
         <v>1</v>
       </c>
-      <c r="E87" s="117" t="s">
+      <c r="E87" s="119" t="s">
         <v>209</v>
       </c>
-      <c r="F87" s="131" t="s">
+      <c r="F87" s="133" t="s">
         <v>210</v>
       </c>
-      <c r="G87" s="131" t="s">
+      <c r="G87" s="133" t="s">
         <v>210</v>
       </c>
-      <c r="H87" s="138"/>
-      <c r="I87" s="118"/>
+      <c r="H87" s="140"/>
+      <c r="I87" s="120"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="177"/>
-      <c r="B88" s="131"/>
-      <c r="C88" s="130" t="s">
+      <c r="A88" s="179"/>
+      <c r="B88" s="133"/>
+      <c r="C88" s="132" t="s">
         <v>211</v>
       </c>
-      <c r="D88" s="117">
+      <c r="D88" s="119">
         <v>1</v>
       </c>
-      <c r="E88" s="117" t="s">
+      <c r="E88" s="119" t="s">
         <v>212</v>
       </c>
-      <c r="F88" s="131" t="s">
+      <c r="F88" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="G88" s="131" t="s">
+      <c r="G88" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="H88" s="138"/>
-      <c r="I88" s="118"/>
-      <c r="J88" s="119" t="s">
+      <c r="H88" s="140"/>
+      <c r="I88" s="120"/>
+      <c r="J88" s="121" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="89" s="113" customFormat="1" spans="1:9">
-      <c r="A89" s="177"/>
-      <c r="B89" s="131"/>
-      <c r="C89" s="139" t="s">
+    <row r="89" s="115" customFormat="1" spans="1:9">
+      <c r="A89" s="179"/>
+      <c r="B89" s="133"/>
+      <c r="C89" s="141" t="s">
         <v>215</v>
       </c>
-      <c r="D89" s="140">
+      <c r="D89" s="142">
         <v>1</v>
       </c>
-      <c r="E89" s="140"/>
-      <c r="F89" s="141" t="s">
+      <c r="E89" s="142"/>
+      <c r="F89" s="143" t="s">
         <v>216</v>
       </c>
-      <c r="G89" s="141" t="s">
+      <c r="G89" s="143" t="s">
         <v>216</v>
       </c>
-      <c r="H89" s="138"/>
-      <c r="I89" s="189"/>
+      <c r="H89" s="140"/>
+      <c r="I89" s="191"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="177"/>
-      <c r="B90" s="131" t="s">
+      <c r="A90" s="179"/>
+      <c r="B90" s="133" t="s">
         <v>217</v>
       </c>
-      <c r="C90" s="130" t="s">
+      <c r="C90" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="D90" s="117">
+      <c r="D90" s="119">
         <v>1</v>
       </c>
-      <c r="E90" s="117" t="s">
+      <c r="E90" s="119" t="s">
         <v>219</v>
       </c>
-      <c r="F90" s="131" t="s">
+      <c r="F90" s="133" t="s">
         <v>192</v>
       </c>
-      <c r="G90" s="131" t="s">
+      <c r="G90" s="133" t="s">
         <v>192</v>
       </c>
-      <c r="H90" s="138"/>
-      <c r="I90" s="118"/>
+      <c r="H90" s="140"/>
+      <c r="I90" s="120"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="177"/>
-      <c r="B91" s="131"/>
-      <c r="C91" s="130" t="s">
+      <c r="A91" s="179"/>
+      <c r="B91" s="133"/>
+      <c r="C91" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="D91" s="117">
+      <c r="D91" s="119">
         <v>1</v>
       </c>
-      <c r="E91" s="117" t="s">
+      <c r="E91" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="F91" s="131" t="s">
+      <c r="F91" s="133" t="s">
         <v>222</v>
       </c>
-      <c r="G91" s="131" t="s">
+      <c r="G91" s="133" t="s">
         <v>222</v>
       </c>
-      <c r="H91" s="138"/>
-      <c r="I91" s="118"/>
+      <c r="H91" s="140"/>
+      <c r="I91" s="120"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="177"/>
-      <c r="B92" s="131"/>
-      <c r="C92" s="130" t="s">
+      <c r="A92" s="179"/>
+      <c r="B92" s="133"/>
+      <c r="C92" s="132" t="s">
         <v>223</v>
       </c>
-      <c r="D92" s="117">
+      <c r="D92" s="119">
         <v>1</v>
       </c>
-      <c r="E92" s="117" t="s">
+      <c r="E92" s="119" t="s">
         <v>224</v>
       </c>
-      <c r="F92" s="131" t="s">
+      <c r="F92" s="133" t="s">
         <v>225</v>
       </c>
-      <c r="G92" s="131" t="s">
+      <c r="G92" s="133" t="s">
         <v>225</v>
       </c>
-      <c r="H92" s="138"/>
-      <c r="I92" s="118"/>
+      <c r="H92" s="140"/>
+      <c r="I92" s="120"/>
     </row>
     <row r="93" hidden="1" spans="1:9">
-      <c r="A93" s="177"/>
-      <c r="B93" s="131"/>
-      <c r="C93" s="130" t="s">
+      <c r="A93" s="179"/>
+      <c r="B93" s="133"/>
+      <c r="C93" s="132" t="s">
         <v>226</v>
       </c>
-      <c r="D93" s="117"/>
-      <c r="E93" s="117"/>
-      <c r="F93" s="131"/>
-      <c r="G93" s="131"/>
-      <c r="H93" s="138"/>
-      <c r="I93" s="118"/>
+      <c r="D93" s="119"/>
+      <c r="E93" s="119"/>
+      <c r="F93" s="133"/>
+      <c r="G93" s="133"/>
+      <c r="H93" s="140"/>
+      <c r="I93" s="120"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="177"/>
-      <c r="B94" s="131"/>
-      <c r="C94" s="130" t="s">
+      <c r="A94" s="179"/>
+      <c r="B94" s="133"/>
+      <c r="C94" s="132" t="s">
         <v>227</v>
       </c>
-      <c r="D94" s="117">
+      <c r="D94" s="119">
         <v>1</v>
       </c>
-      <c r="E94" s="117" t="s">
+      <c r="E94" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="F94" s="131" t="s">
+      <c r="F94" s="133" t="s">
         <v>229</v>
       </c>
-      <c r="G94" s="131" t="s">
+      <c r="G94" s="133" t="s">
         <v>229</v>
       </c>
-      <c r="H94" s="138"/>
-      <c r="I94" s="118"/>
+      <c r="H94" s="140"/>
+      <c r="I94" s="120"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="177"/>
-      <c r="B95" s="131"/>
-      <c r="C95" s="130" t="s">
+      <c r="A95" s="179"/>
+      <c r="B95" s="133"/>
+      <c r="C95" s="132" t="s">
         <v>230</v>
       </c>
-      <c r="D95" s="117">
+      <c r="D95" s="119">
         <v>1</v>
       </c>
-      <c r="E95" s="117" t="s">
+      <c r="E95" s="119" t="s">
         <v>231</v>
       </c>
-      <c r="F95" s="131" t="s">
+      <c r="F95" s="133" t="s">
         <v>232</v>
       </c>
-      <c r="G95" s="131" t="s">
+      <c r="G95" s="133" t="s">
         <v>232</v>
       </c>
-      <c r="H95" s="138"/>
-      <c r="I95" s="118"/>
+      <c r="H95" s="140"/>
+      <c r="I95" s="120"/>
     </row>
     <row r="96" hidden="1" spans="1:9">
-      <c r="A96" s="177"/>
-      <c r="B96" s="131"/>
-      <c r="C96" s="130" t="s">
+      <c r="A96" s="179"/>
+      <c r="B96" s="133"/>
+      <c r="C96" s="132" t="s">
         <v>233</v>
       </c>
-      <c r="D96" s="117"/>
-      <c r="E96" s="117" t="s">
+      <c r="D96" s="119"/>
+      <c r="E96" s="119" t="s">
         <v>234</v>
       </c>
-      <c r="F96" s="131" t="s">
+      <c r="F96" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="G96" s="131" t="s">
+      <c r="G96" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="H96" s="138"/>
-      <c r="I96" s="118"/>
+      <c r="H96" s="140"/>
+      <c r="I96" s="120"/>
     </row>
     <row r="97" hidden="1" spans="1:9">
-      <c r="A97" s="177"/>
-      <c r="B97" s="131"/>
-      <c r="C97" s="130" t="s">
+      <c r="A97" s="179"/>
+      <c r="B97" s="133"/>
+      <c r="C97" s="132" t="s">
         <v>235</v>
       </c>
-      <c r="D97" s="117"/>
-      <c r="E97" s="117" t="s">
+      <c r="D97" s="119"/>
+      <c r="E97" s="119" t="s">
         <v>154</v>
       </c>
-      <c r="F97" s="131"/>
-      <c r="G97" s="131"/>
-      <c r="H97" s="138"/>
-      <c r="I97" s="118"/>
+      <c r="F97" s="133"/>
+      <c r="G97" s="133"/>
+      <c r="H97" s="140"/>
+      <c r="I97" s="120"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="177"/>
-      <c r="B98" s="131"/>
-      <c r="C98" s="130" t="s">
+      <c r="A98" s="179"/>
+      <c r="B98" s="133"/>
+      <c r="C98" s="132" t="s">
         <v>236</v>
       </c>
-      <c r="D98" s="117">
+      <c r="D98" s="119">
         <v>1</v>
       </c>
-      <c r="E98" s="117" t="s">
+      <c r="E98" s="119" t="s">
         <v>237</v>
       </c>
-      <c r="F98" s="131" t="s">
+      <c r="F98" s="133" t="s">
         <v>238</v>
       </c>
-      <c r="G98" s="131" t="s">
+      <c r="G98" s="133" t="s">
         <v>238</v>
       </c>
-      <c r="H98" s="138"/>
-      <c r="I98" s="118"/>
+      <c r="H98" s="140"/>
+      <c r="I98" s="120"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="177"/>
-      <c r="B99" s="131"/>
-      <c r="C99" s="130" t="s">
+      <c r="A99" s="179"/>
+      <c r="B99" s="133"/>
+      <c r="C99" s="132" t="s">
         <v>239</v>
       </c>
-      <c r="D99" s="117">
+      <c r="D99" s="119">
         <v>1</v>
       </c>
-      <c r="E99" s="117" t="s">
+      <c r="E99" s="119" t="s">
         <v>240</v>
       </c>
-      <c r="F99" s="131" t="s">
+      <c r="F99" s="133" t="s">
         <v>241</v>
       </c>
-      <c r="G99" s="131" t="s">
+      <c r="G99" s="133" t="s">
         <v>241</v>
       </c>
-      <c r="H99" s="138"/>
-      <c r="I99" s="118"/>
+      <c r="H99" s="140"/>
+      <c r="I99" s="120"/>
     </row>
     <row r="100" hidden="1" spans="1:9">
-      <c r="A100" s="177"/>
-      <c r="B100" s="131"/>
-      <c r="C100" s="130" t="s">
+      <c r="A100" s="179"/>
+      <c r="B100" s="133"/>
+      <c r="C100" s="132" t="s">
         <v>242</v>
       </c>
-      <c r="D100" s="117"/>
-      <c r="E100" s="117" t="s">
+      <c r="D100" s="119"/>
+      <c r="E100" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="F100" s="131"/>
-      <c r="G100" s="131"/>
-      <c r="H100" s="138"/>
-      <c r="I100" s="118"/>
+      <c r="F100" s="133"/>
+      <c r="G100" s="133"/>
+      <c r="H100" s="140"/>
+      <c r="I100" s="120"/>
     </row>
     <row r="101" hidden="1" spans="1:9">
-      <c r="A101" s="177"/>
-      <c r="B101" s="131"/>
-      <c r="C101" s="130" t="s">
+      <c r="A101" s="179"/>
+      <c r="B101" s="133"/>
+      <c r="C101" s="132" t="s">
         <v>244</v>
       </c>
-      <c r="D101" s="117"/>
-      <c r="E101" s="117"/>
-      <c r="F101" s="131"/>
-      <c r="G101" s="131"/>
-      <c r="H101" s="138"/>
-      <c r="I101" s="118"/>
+      <c r="D101" s="119"/>
+      <c r="E101" s="119"/>
+      <c r="F101" s="133"/>
+      <c r="G101" s="133"/>
+      <c r="H101" s="140"/>
+      <c r="I101" s="120"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="177"/>
-      <c r="B102" s="131" t="s">
+      <c r="A102" s="179"/>
+      <c r="B102" s="133" t="s">
         <v>245</v>
       </c>
-      <c r="C102" s="130" t="s">
+      <c r="C102" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="D102" s="117">
+      <c r="D102" s="119">
         <v>1</v>
       </c>
-      <c r="E102" s="117" t="s">
+      <c r="E102" s="119" t="s">
         <v>246</v>
       </c>
-      <c r="F102" s="131" t="s">
+      <c r="F102" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="G102" s="131" t="s">
+      <c r="G102" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="H102" s="138"/>
-      <c r="I102" s="118"/>
+      <c r="H102" s="140"/>
+      <c r="I102" s="120"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="177"/>
-      <c r="B103" s="131"/>
-      <c r="C103" s="130" t="s">
+      <c r="A103" s="179"/>
+      <c r="B103" s="133"/>
+      <c r="C103" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="D103" s="117">
+      <c r="D103" s="119">
         <v>1</v>
       </c>
-      <c r="E103" s="117" t="s">
+      <c r="E103" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="F103" s="131" t="s">
+      <c r="F103" s="133" t="s">
         <v>248</v>
       </c>
-      <c r="G103" s="131" t="s">
+      <c r="G103" s="133" t="s">
         <v>248</v>
       </c>
-      <c r="H103" s="138"/>
-      <c r="I103" s="118"/>
+      <c r="H103" s="140"/>
+      <c r="I103" s="120"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="177"/>
-      <c r="B104" s="131"/>
-      <c r="C104" s="130" t="s">
+      <c r="A104" s="179"/>
+      <c r="B104" s="133"/>
+      <c r="C104" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="D104" s="117">
+      <c r="D104" s="119">
         <v>1</v>
       </c>
-      <c r="E104" s="117" t="s">
+      <c r="E104" s="119" t="s">
         <v>249</v>
       </c>
-      <c r="F104" s="131" t="s">
+      <c r="F104" s="133" t="s">
         <v>250</v>
       </c>
-      <c r="G104" s="131" t="s">
+      <c r="G104" s="133" t="s">
         <v>250</v>
       </c>
-      <c r="H104" s="138"/>
-      <c r="I104" s="118"/>
-    </row>
-    <row r="105" s="113" customFormat="1" spans="1:9">
-      <c r="A105" s="177"/>
-      <c r="B105" s="131"/>
-      <c r="C105" s="139" t="s">
+      <c r="H104" s="140"/>
+      <c r="I104" s="120"/>
+    </row>
+    <row r="105" s="115" customFormat="1" spans="1:9">
+      <c r="A105" s="179"/>
+      <c r="B105" s="133"/>
+      <c r="C105" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="D105" s="140">
+      <c r="D105" s="142">
         <v>1</v>
       </c>
-      <c r="E105" s="140"/>
-      <c r="F105" s="141" t="s">
+      <c r="E105" s="142"/>
+      <c r="F105" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="G105" s="141" t="s">
+      <c r="G105" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="H105" s="138"/>
-      <c r="I105" s="189"/>
+      <c r="H105" s="140"/>
+      <c r="I105" s="191"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="177"/>
-      <c r="B106" s="131"/>
-      <c r="C106" s="130" t="s">
+      <c r="A106" s="179"/>
+      <c r="B106" s="133"/>
+      <c r="C106" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="D106" s="117">
+      <c r="D106" s="119">
         <v>1</v>
       </c>
-      <c r="E106" s="117" t="s">
+      <c r="E106" s="119" t="s">
         <v>246</v>
       </c>
-      <c r="F106" s="131" t="s">
+      <c r="F106" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="G106" s="131" t="s">
+      <c r="G106" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="H106" s="138"/>
-      <c r="I106" s="118"/>
+      <c r="H106" s="140"/>
+      <c r="I106" s="120"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="177"/>
-      <c r="B107" s="131"/>
-      <c r="C107" s="130" t="s">
+      <c r="A107" s="179"/>
+      <c r="B107" s="133"/>
+      <c r="C107" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="D107" s="117">
+      <c r="D107" s="119">
         <v>1</v>
       </c>
-      <c r="E107" s="117" t="s">
+      <c r="E107" s="119" t="s">
         <v>193</v>
       </c>
-      <c r="F107" s="131" t="s">
+      <c r="F107" s="133" t="s">
         <v>252</v>
       </c>
-      <c r="G107" s="131" t="s">
+      <c r="G107" s="133" t="s">
         <v>252</v>
       </c>
-      <c r="H107" s="138"/>
-      <c r="I107" s="118"/>
+      <c r="H107" s="140"/>
+      <c r="I107" s="120"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="177"/>
-      <c r="B108" s="131"/>
-      <c r="C108" s="130" t="s">
+      <c r="A108" s="179"/>
+      <c r="B108" s="133"/>
+      <c r="C108" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="D108" s="117">
+      <c r="D108" s="119">
         <v>1</v>
       </c>
-      <c r="E108" s="117" t="s">
+      <c r="E108" s="119" t="s">
         <v>253</v>
       </c>
-      <c r="F108" s="131" t="s">
+      <c r="F108" s="133" t="s">
         <v>254</v>
       </c>
-      <c r="G108" s="131" t="s">
+      <c r="G108" s="133" t="s">
         <v>254</v>
       </c>
-      <c r="H108" s="138"/>
-      <c r="I108" s="118"/>
-    </row>
-    <row r="109" s="113" customFormat="1" ht="13.8" customHeight="1" spans="1:9">
-      <c r="A109" s="177"/>
-      <c r="B109" s="131"/>
-      <c r="C109" s="139" t="s">
+      <c r="H108" s="140"/>
+      <c r="I108" s="120"/>
+    </row>
+    <row r="109" s="115" customFormat="1" ht="13.8" customHeight="1" spans="1:9">
+      <c r="A109" s="179"/>
+      <c r="B109" s="133"/>
+      <c r="C109" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="D109" s="140">
+      <c r="D109" s="142">
         <v>1</v>
       </c>
-      <c r="E109" s="140"/>
-      <c r="F109" s="141" t="s">
+      <c r="E109" s="142"/>
+      <c r="F109" s="143" t="s">
         <v>255</v>
       </c>
-      <c r="G109" s="141" t="s">
+      <c r="G109" s="143" t="s">
         <v>255</v>
       </c>
-      <c r="H109" s="138"/>
-      <c r="I109" s="189"/>
+      <c r="H109" s="140"/>
+      <c r="I109" s="191"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="177"/>
-      <c r="B110" s="131"/>
-      <c r="C110" s="130" t="s">
+      <c r="A110" s="179"/>
+      <c r="B110" s="133"/>
+      <c r="C110" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="D110" s="117">
+      <c r="D110" s="119">
         <v>1</v>
       </c>
-      <c r="E110" s="117" t="s">
+      <c r="E110" s="119" t="s">
         <v>246</v>
       </c>
-      <c r="F110" s="131" t="s">
+      <c r="F110" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="G110" s="131" t="s">
+      <c r="G110" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="H110" s="138"/>
-      <c r="I110" s="118"/>
+      <c r="H110" s="140"/>
+      <c r="I110" s="120"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="177"/>
-      <c r="B111" s="131"/>
-      <c r="C111" s="130" t="s">
+      <c r="A111" s="179"/>
+      <c r="B111" s="133"/>
+      <c r="C111" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="D111" s="117">
+      <c r="D111" s="119">
         <v>1</v>
       </c>
-      <c r="E111" s="117" t="s">
+      <c r="E111" s="119" t="s">
         <v>193</v>
       </c>
-      <c r="F111" s="131" t="s">
+      <c r="F111" s="133" t="s">
         <v>256</v>
       </c>
-      <c r="G111" s="131" t="s">
+      <c r="G111" s="133" t="s">
         <v>256</v>
       </c>
-      <c r="H111" s="138"/>
-      <c r="I111" s="118"/>
+      <c r="H111" s="140"/>
+      <c r="I111" s="120"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="177"/>
-      <c r="B112" s="131"/>
-      <c r="C112" s="130" t="s">
+      <c r="A112" s="179"/>
+      <c r="B112" s="133"/>
+      <c r="C112" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="D112" s="117">
+      <c r="D112" s="119">
         <v>1</v>
       </c>
-      <c r="E112" s="117" t="s">
+      <c r="E112" s="119" t="s">
         <v>253</v>
       </c>
-      <c r="F112" s="131" t="s">
+      <c r="F112" s="133" t="s">
         <v>257</v>
       </c>
-      <c r="G112" s="131" t="s">
+      <c r="G112" s="133" t="s">
         <v>257</v>
       </c>
-      <c r="H112" s="138"/>
-      <c r="I112" s="118"/>
-    </row>
-    <row r="113" s="113" customFormat="1" spans="1:9">
-      <c r="A113" s="177"/>
-      <c r="B113" s="131"/>
-      <c r="C113" s="139" t="s">
+      <c r="H112" s="140"/>
+      <c r="I112" s="120"/>
+    </row>
+    <row r="113" s="115" customFormat="1" spans="1:9">
+      <c r="A113" s="179"/>
+      <c r="B113" s="133"/>
+      <c r="C113" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="D113" s="140">
+      <c r="D113" s="142">
         <v>1</v>
       </c>
-      <c r="E113" s="140"/>
-      <c r="F113" s="141" t="s">
+      <c r="E113" s="142"/>
+      <c r="F113" s="143" t="s">
         <v>258</v>
       </c>
-      <c r="G113" s="141" t="s">
+      <c r="G113" s="143" t="s">
         <v>258</v>
       </c>
-      <c r="H113" s="138"/>
-      <c r="I113" s="189"/>
+      <c r="H113" s="140"/>
+      <c r="I113" s="191"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="177"/>
-      <c r="B114" s="131" t="s">
+      <c r="A114" s="179"/>
+      <c r="B114" s="133" t="s">
         <v>259</v>
       </c>
-      <c r="C114" s="130" t="s">
+      <c r="C114" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="D114" s="117">
+      <c r="D114" s="119">
         <v>1</v>
       </c>
-      <c r="E114" s="117" t="s">
+      <c r="E114" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="F114" s="131" t="s">
+      <c r="F114" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="G114" s="131" t="s">
+      <c r="G114" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="H114" s="138"/>
-      <c r="I114" s="118"/>
+      <c r="H114" s="140"/>
+      <c r="I114" s="120"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="177"/>
-      <c r="B115" s="131"/>
-      <c r="C115" s="130" t="s">
+      <c r="A115" s="179"/>
+      <c r="B115" s="133"/>
+      <c r="C115" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="D115" s="117">
+      <c r="D115" s="119">
         <v>1</v>
       </c>
-      <c r="E115" s="117" t="s">
+      <c r="E115" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="F115" s="131" t="s">
+      <c r="F115" s="133" t="s">
         <v>261</v>
       </c>
-      <c r="G115" s="131" t="s">
+      <c r="G115" s="133" t="s">
         <v>261</v>
       </c>
-      <c r="H115" s="138"/>
-      <c r="I115" s="118"/>
+      <c r="H115" s="140"/>
+      <c r="I115" s="120"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="177"/>
-      <c r="B116" s="131"/>
-      <c r="C116" s="130" t="s">
+      <c r="A116" s="179"/>
+      <c r="B116" s="133"/>
+      <c r="C116" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="117">
+      <c r="D116" s="119">
         <v>1</v>
       </c>
-      <c r="E116" s="117" t="s">
+      <c r="E116" s="119" t="s">
         <v>205</v>
       </c>
-      <c r="F116" s="131" t="s">
+      <c r="F116" s="133" t="s">
         <v>262</v>
       </c>
-      <c r="G116" s="131" t="s">
+      <c r="G116" s="133" t="s">
         <v>262</v>
       </c>
-      <c r="H116" s="138"/>
-      <c r="I116" s="118"/>
+      <c r="H116" s="140"/>
+      <c r="I116" s="120"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="177"/>
-      <c r="B117" s="131"/>
-      <c r="C117" s="130" t="s">
+      <c r="A117" s="179"/>
+      <c r="B117" s="133"/>
+      <c r="C117" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="D117" s="117">
+      <c r="D117" s="119">
         <v>1</v>
       </c>
-      <c r="E117" s="117" t="s">
+      <c r="E117" s="119" t="s">
         <v>207</v>
       </c>
-      <c r="F117" s="131" t="s">
+      <c r="F117" s="133" t="s">
         <v>263</v>
       </c>
-      <c r="G117" s="131" t="s">
+      <c r="G117" s="133" t="s">
         <v>263</v>
       </c>
-      <c r="H117" s="138"/>
-      <c r="I117" s="118"/>
+      <c r="H117" s="140"/>
+      <c r="I117" s="120"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="177"/>
-      <c r="B118" s="131"/>
-      <c r="C118" s="130" t="s">
+      <c r="A118" s="179"/>
+      <c r="B118" s="133"/>
+      <c r="C118" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="D118" s="117">
+      <c r="D118" s="119">
         <v>1</v>
       </c>
-      <c r="E118" s="117" t="s">
+      <c r="E118" s="119" t="s">
         <v>209</v>
       </c>
-      <c r="F118" s="131" t="s">
+      <c r="F118" s="133" t="s">
         <v>264</v>
       </c>
-      <c r="G118" s="131" t="s">
+      <c r="G118" s="133" t="s">
         <v>264</v>
       </c>
-      <c r="H118" s="138"/>
-      <c r="I118" s="118"/>
-    </row>
-    <row r="119" s="116" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A119" s="178"/>
-      <c r="B119" s="159"/>
-      <c r="C119" s="179" t="s">
+      <c r="H118" s="140"/>
+      <c r="I118" s="120"/>
+    </row>
+    <row r="119" s="118" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A119" s="180"/>
+      <c r="B119" s="161"/>
+      <c r="C119" s="181" t="s">
         <v>211</v>
       </c>
-      <c r="D119" s="180">
+      <c r="D119" s="182">
         <v>1</v>
       </c>
-      <c r="E119" s="180" t="s">
+      <c r="E119" s="182" t="s">
         <v>265</v>
       </c>
-      <c r="F119" s="159" t="s">
+      <c r="F119" s="161" t="s">
         <v>266</v>
       </c>
-      <c r="G119" s="159" t="s">
+      <c r="G119" s="161" t="s">
         <v>266</v>
       </c>
-      <c r="H119" s="181"/>
-      <c r="I119" s="190"/>
+      <c r="H119" s="183"/>
+      <c r="I119" s="192"/>
     </row>
     <row r="120" hidden="1" spans="1:9">
-      <c r="A120" s="182"/>
-      <c r="B120" s="144"/>
-      <c r="C120" s="183" t="s">
+      <c r="A120" s="184"/>
+      <c r="B120" s="146"/>
+      <c r="C120" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="D120" s="167"/>
-      <c r="E120" s="167"/>
-      <c r="F120" s="144"/>
-      <c r="G120" s="144"/>
-      <c r="H120" s="167"/>
-      <c r="I120" s="191"/>
+      <c r="D120" s="169"/>
+      <c r="E120" s="169"/>
+      <c r="F120" s="146"/>
+      <c r="G120" s="146"/>
+      <c r="H120" s="169"/>
+      <c r="I120" s="193"/>
     </row>
     <row r="121" hidden="1" spans="1:9">
       <c r="A121" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="B121" s="131" t="s">
+      <c r="B121" s="133" t="s">
         <v>268</v>
       </c>
-      <c r="C121" s="130" t="s">
+      <c r="C121" s="132" t="s">
         <v>269</v>
       </c>
-      <c r="D121" s="117"/>
-      <c r="E121" s="117"/>
-      <c r="F121" s="131"/>
-      <c r="G121" s="131"/>
-      <c r="H121" s="117"/>
-      <c r="I121" s="118"/>
+      <c r="D121" s="119"/>
+      <c r="E121" s="119"/>
+      <c r="F121" s="133"/>
+      <c r="G121" s="133"/>
+      <c r="H121" s="119"/>
+      <c r="I121" s="120"/>
     </row>
     <row r="122" hidden="1" spans="1:9">
       <c r="A122" s="67"/>
-      <c r="B122" s="131"/>
-      <c r="C122" s="130" t="s">
+      <c r="B122" s="133"/>
+      <c r="C122" s="132" t="s">
         <v>270</v>
       </c>
-      <c r="D122" s="117"/>
-      <c r="E122" s="117"/>
-      <c r="F122" s="131"/>
-      <c r="G122" s="131"/>
-      <c r="H122" s="117"/>
-      <c r="I122" s="118"/>
+      <c r="D122" s="119"/>
+      <c r="E122" s="119"/>
+      <c r="F122" s="133"/>
+      <c r="G122" s="133"/>
+      <c r="H122" s="119"/>
+      <c r="I122" s="120"/>
     </row>
     <row r="123" hidden="1" spans="1:9">
       <c r="A123" s="67"/>
-      <c r="B123" s="131"/>
-      <c r="C123" s="130" t="s">
+      <c r="B123" s="133"/>
+      <c r="C123" s="132" t="s">
         <v>271</v>
       </c>
-      <c r="D123" s="117"/>
-      <c r="E123" s="117"/>
-      <c r="F123" s="131"/>
-      <c r="G123" s="131"/>
-      <c r="H123" s="117"/>
-      <c r="I123" s="118"/>
+      <c r="D123" s="119"/>
+      <c r="E123" s="119"/>
+      <c r="F123" s="133"/>
+      <c r="G123" s="133"/>
+      <c r="H123" s="119"/>
+      <c r="I123" s="120"/>
     </row>
     <row r="124" hidden="1" spans="1:9">
       <c r="A124" s="67"/>
-      <c r="B124" s="131"/>
-      <c r="C124" s="130" t="s">
+      <c r="B124" s="133"/>
+      <c r="C124" s="132" t="s">
         <v>272</v>
       </c>
-      <c r="D124" s="117"/>
-      <c r="E124" s="117"/>
-      <c r="F124" s="131"/>
-      <c r="G124" s="131"/>
-      <c r="H124" s="117"/>
-      <c r="I124" s="118"/>
+      <c r="D124" s="119"/>
+      <c r="E124" s="119"/>
+      <c r="F124" s="133"/>
+      <c r="G124" s="133"/>
+      <c r="H124" s="119"/>
+      <c r="I124" s="120"/>
     </row>
     <row r="125" hidden="1" spans="1:9">
       <c r="A125" s="67"/>
-      <c r="B125" s="131"/>
-      <c r="C125" s="130" t="s">
+      <c r="B125" s="133"/>
+      <c r="C125" s="132" t="s">
         <v>273</v>
       </c>
-      <c r="D125" s="117"/>
-      <c r="E125" s="117"/>
-      <c r="F125" s="131"/>
-      <c r="G125" s="131"/>
-      <c r="H125" s="117"/>
-      <c r="I125" s="118"/>
+      <c r="D125" s="119"/>
+      <c r="E125" s="119"/>
+      <c r="F125" s="133"/>
+      <c r="G125" s="133"/>
+      <c r="H125" s="119"/>
+      <c r="I125" s="120"/>
     </row>
     <row r="126" hidden="1" spans="1:9">
       <c r="A126" s="67"/>
-      <c r="B126" s="131"/>
-      <c r="C126" s="130" t="s">
+      <c r="B126" s="133"/>
+      <c r="C126" s="132" t="s">
         <v>274</v>
       </c>
-      <c r="D126" s="117"/>
-      <c r="E126" s="117"/>
-      <c r="F126" s="131"/>
-      <c r="G126" s="131"/>
-      <c r="H126" s="117"/>
-      <c r="I126" s="118"/>
+      <c r="D126" s="119"/>
+      <c r="E126" s="119"/>
+      <c r="F126" s="133"/>
+      <c r="G126" s="133"/>
+      <c r="H126" s="119"/>
+      <c r="I126" s="120"/>
     </row>
     <row r="127" hidden="1" spans="1:9">
       <c r="A127" s="67"/>
-      <c r="B127" s="131"/>
-      <c r="C127" s="130" t="s">
+      <c r="B127" s="133"/>
+      <c r="C127" s="132" t="s">
         <v>275</v>
       </c>
-      <c r="D127" s="117"/>
-      <c r="E127" s="117"/>
-      <c r="F127" s="131"/>
-      <c r="G127" s="131"/>
-      <c r="H127" s="117"/>
-      <c r="I127" s="118"/>
+      <c r="D127" s="119"/>
+      <c r="E127" s="119"/>
+      <c r="F127" s="133"/>
+      <c r="G127" s="133"/>
+      <c r="H127" s="119"/>
+      <c r="I127" s="120"/>
     </row>
     <row r="128" hidden="1" spans="1:9">
       <c r="A128" s="67"/>
-      <c r="B128" s="184" t="s">
+      <c r="B128" s="186" t="s">
         <v>276</v>
       </c>
-      <c r="C128" s="130" t="s">
+      <c r="C128" s="132" t="s">
         <v>269</v>
       </c>
-      <c r="D128" s="117"/>
-      <c r="E128" s="117"/>
-      <c r="F128" s="131"/>
-      <c r="G128" s="131"/>
-      <c r="H128" s="117"/>
-      <c r="I128" s="118"/>
+      <c r="D128" s="119"/>
+      <c r="E128" s="119"/>
+      <c r="F128" s="133"/>
+      <c r="G128" s="133"/>
+      <c r="H128" s="119"/>
+      <c r="I128" s="120"/>
     </row>
     <row r="129" hidden="1" spans="1:9">
       <c r="A129" s="67"/>
-      <c r="B129" s="131"/>
-      <c r="C129" s="130" t="s">
+      <c r="B129" s="133"/>
+      <c r="C129" s="132" t="s">
         <v>270</v>
       </c>
-      <c r="D129" s="117"/>
-      <c r="E129" s="117"/>
-      <c r="F129" s="131"/>
-      <c r="G129" s="131"/>
-      <c r="H129" s="117"/>
-      <c r="I129" s="118"/>
+      <c r="D129" s="119"/>
+      <c r="E129" s="119"/>
+      <c r="F129" s="133"/>
+      <c r="G129" s="133"/>
+      <c r="H129" s="119"/>
+      <c r="I129" s="120"/>
     </row>
     <row r="130" hidden="1" spans="1:9">
       <c r="A130" s="67"/>
-      <c r="B130" s="131"/>
-      <c r="C130" s="130" t="s">
+      <c r="B130" s="133"/>
+      <c r="C130" s="132" t="s">
         <v>271</v>
       </c>
-      <c r="D130" s="117"/>
-      <c r="E130" s="117"/>
-      <c r="F130" s="131"/>
-      <c r="G130" s="131"/>
-      <c r="H130" s="117"/>
-      <c r="I130" s="118"/>
+      <c r="D130" s="119"/>
+      <c r="E130" s="119"/>
+      <c r="F130" s="133"/>
+      <c r="G130" s="133"/>
+      <c r="H130" s="119"/>
+      <c r="I130" s="120"/>
     </row>
     <row r="131" hidden="1" spans="1:9">
       <c r="A131" s="67"/>
-      <c r="B131" s="131"/>
-      <c r="C131" s="130" t="s">
+      <c r="B131" s="133"/>
+      <c r="C131" s="132" t="s">
         <v>272</v>
       </c>
-      <c r="D131" s="117"/>
-      <c r="E131" s="117"/>
-      <c r="F131" s="131"/>
-      <c r="G131" s="131"/>
-      <c r="H131" s="117"/>
-      <c r="I131" s="118"/>
+      <c r="D131" s="119"/>
+      <c r="E131" s="119"/>
+      <c r="F131" s="133"/>
+      <c r="G131" s="133"/>
+      <c r="H131" s="119"/>
+      <c r="I131" s="120"/>
     </row>
     <row r="132" hidden="1" spans="1:9">
       <c r="A132" s="67"/>
-      <c r="B132" s="131"/>
-      <c r="C132" s="130" t="s">
+      <c r="B132" s="133"/>
+      <c r="C132" s="132" t="s">
         <v>273</v>
       </c>
-      <c r="D132" s="117"/>
-      <c r="E132" s="117"/>
-      <c r="F132" s="131"/>
-      <c r="G132" s="131"/>
-      <c r="H132" s="117"/>
-      <c r="I132" s="118"/>
+      <c r="D132" s="119"/>
+      <c r="E132" s="119"/>
+      <c r="F132" s="133"/>
+      <c r="G132" s="133"/>
+      <c r="H132" s="119"/>
+      <c r="I132" s="120"/>
     </row>
     <row r="133" hidden="1" spans="1:9">
       <c r="A133" s="67"/>
-      <c r="B133" s="131"/>
-      <c r="C133" s="130" t="s">
+      <c r="B133" s="133"/>
+      <c r="C133" s="132" t="s">
         <v>274</v>
       </c>
-      <c r="D133" s="117"/>
-      <c r="E133" s="117"/>
-      <c r="F133" s="131"/>
-      <c r="G133" s="131"/>
-      <c r="H133" s="117"/>
-      <c r="I133" s="118"/>
+      <c r="D133" s="119"/>
+      <c r="E133" s="119"/>
+      <c r="F133" s="133"/>
+      <c r="G133" s="133"/>
+      <c r="H133" s="119"/>
+      <c r="I133" s="120"/>
     </row>
     <row r="134" hidden="1" spans="1:9">
       <c r="A134" s="67"/>
-      <c r="B134" s="131"/>
-      <c r="C134" s="130" t="s">
+      <c r="B134" s="133"/>
+      <c r="C134" s="132" t="s">
         <v>275</v>
       </c>
-      <c r="D134" s="117"/>
-      <c r="E134" s="117"/>
-      <c r="F134" s="131"/>
-      <c r="G134" s="131"/>
-      <c r="H134" s="117"/>
-      <c r="I134" s="118"/>
+      <c r="D134" s="119"/>
+      <c r="E134" s="119"/>
+      <c r="F134" s="133"/>
+      <c r="G134" s="133"/>
+      <c r="H134" s="119"/>
+      <c r="I134" s="120"/>
     </row>
     <row r="135" ht="28.5" hidden="1" customHeight="1" spans="1:3">
       <c r="A135" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="B135" s="131" t="s">
+      <c r="B135" s="133" t="s">
         <v>278</v>
       </c>
-      <c r="C135" s="119" t="s">
+      <c r="C135" s="121" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="136" hidden="1" spans="1:3">
       <c r="A136" s="67"/>
-      <c r="B136" s="131"/>
-      <c r="C136" s="119" t="s">
+      <c r="B136" s="133"/>
+      <c r="C136" s="121" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="137" hidden="1" spans="1:3">
       <c r="A137" s="67"/>
-      <c r="B137" s="131"/>
-      <c r="C137" s="119" t="s">
+      <c r="B137" s="133"/>
+      <c r="C137" s="121" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="138" hidden="1" spans="1:3">
       <c r="A138" s="67"/>
-      <c r="B138" s="131"/>
-      <c r="C138" s="119" t="s">
+      <c r="B138" s="133"/>
+      <c r="C138" s="121" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="139" hidden="1" spans="1:3">
       <c r="A139" s="67"/>
-      <c r="B139" s="131"/>
-      <c r="C139" s="119" t="s">
+      <c r="B139" s="133"/>
+      <c r="C139" s="121" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="140" hidden="1" spans="1:3">
       <c r="A140" s="67"/>
-      <c r="B140" s="131"/>
-      <c r="C140" s="119" t="s">
+      <c r="B140" s="133"/>
+      <c r="C140" s="121" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="141" hidden="1" spans="1:5">
       <c r="A141" s="67"/>
-      <c r="B141" s="131"/>
-      <c r="C141" s="119" t="s">
+      <c r="B141" s="133"/>
+      <c r="C141" s="121" t="s">
         <v>284</v>
       </c>
-      <c r="E141" s="119" t="s">
+      <c r="E141" s="121" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="142" hidden="1" spans="1:3">
       <c r="A142" s="67"/>
-      <c r="B142" s="131"/>
-      <c r="C142" s="119" t="s">
+      <c r="B142" s="133"/>
+      <c r="C142" s="121" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="143" hidden="1" spans="1:3">
       <c r="A143" s="67"/>
-      <c r="B143" s="131" t="s">
+      <c r="B143" s="133" t="s">
         <v>287</v>
       </c>
-      <c r="C143" s="119" t="s">
+      <c r="C143" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="144" hidden="1" spans="1:3">
       <c r="A144" s="67"/>
-      <c r="B144" s="131"/>
-      <c r="C144" s="119" t="s">
+      <c r="B144" s="133"/>
+      <c r="C144" s="121" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="145" hidden="1" spans="1:5">
       <c r="A145" s="67"/>
-      <c r="B145" s="131"/>
-      <c r="C145" s="119" t="s">
+      <c r="B145" s="133"/>
+      <c r="C145" s="121" t="s">
         <v>290</v>
       </c>
-      <c r="E145" s="119" t="s">
+      <c r="E145" s="121" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="146" hidden="1" spans="1:3">
       <c r="A146" s="67"/>
-      <c r="B146" s="131"/>
-      <c r="C146" s="119" t="s">
+      <c r="B146" s="133"/>
+      <c r="C146" s="121" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="147" hidden="1" spans="1:3">
       <c r="A147" s="67"/>
-      <c r="B147" s="131"/>
-      <c r="C147" s="119" t="s">
+      <c r="B147" s="133"/>
+      <c r="C147" s="121" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="148" hidden="1" spans="1:3">
       <c r="A148" s="67"/>
-      <c r="B148" s="131"/>
-      <c r="C148" s="119" t="s">
+      <c r="B148" s="133"/>
+      <c r="C148" s="121" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="149" hidden="1" spans="1:3">
       <c r="A149" s="67"/>
-      <c r="B149" s="131"/>
-      <c r="C149" s="119" t="s">
+      <c r="B149" s="133"/>
+      <c r="C149" s="121" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7968,131 +7974,131 @@
       <c r="A150" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="B150" s="131" t="s">
+      <c r="B150" s="133" t="s">
         <v>297</v>
       </c>
-      <c r="C150" s="121" t="s">
+      <c r="C150" s="123" t="s">
         <v>298</v>
       </c>
-      <c r="E150" s="119" t="s">
+      <c r="E150" s="121" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="151" hidden="1" spans="1:5">
       <c r="A151" s="67"/>
-      <c r="B151" s="131"/>
-      <c r="C151" s="119" t="s">
+      <c r="B151" s="133"/>
+      <c r="C151" s="121" t="s">
         <v>300</v>
       </c>
-      <c r="E151" s="119" t="s">
+      <c r="E151" s="121" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="152" hidden="1" spans="1:5">
       <c r="A152" s="67"/>
-      <c r="B152" s="131"/>
-      <c r="C152" s="119" t="s">
+      <c r="B152" s="133"/>
+      <c r="C152" s="121" t="s">
         <v>301</v>
       </c>
-      <c r="E152" s="119" t="s">
+      <c r="E152" s="121" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="153" hidden="1" spans="1:5">
       <c r="A153" s="67"/>
-      <c r="B153" s="131"/>
-      <c r="C153" s="119" t="s">
+      <c r="B153" s="133"/>
+      <c r="C153" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="E153" s="119" t="s">
+      <c r="E153" s="121" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="154" hidden="1" spans="1:5">
       <c r="A154" s="67"/>
-      <c r="B154" s="131"/>
-      <c r="C154" s="119" t="s">
+      <c r="B154" s="133"/>
+      <c r="C154" s="121" t="s">
         <v>274</v>
       </c>
-      <c r="E154" s="119" t="s">
+      <c r="E154" s="121" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="155" hidden="1" spans="1:5">
       <c r="A155" s="67"/>
-      <c r="B155" s="131" t="s">
+      <c r="B155" s="133" t="s">
         <v>303</v>
       </c>
-      <c r="C155" s="119" t="s">
+      <c r="C155" s="121" t="s">
         <v>304</v>
       </c>
-      <c r="E155" s="119" t="s">
+      <c r="E155" s="121" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="156" hidden="1" spans="1:5">
       <c r="A156" s="67"/>
-      <c r="B156" s="131"/>
-      <c r="C156" s="119" t="s">
+      <c r="B156" s="133"/>
+      <c r="C156" s="121" t="s">
         <v>305</v>
       </c>
-      <c r="E156" s="119" t="s">
+      <c r="E156" s="121" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="157" hidden="1" spans="1:5">
       <c r="A157" s="67"/>
-      <c r="B157" s="131"/>
-      <c r="C157" s="119" t="s">
+      <c r="B157" s="133"/>
+      <c r="C157" s="121" t="s">
         <v>306</v>
       </c>
-      <c r="E157" s="119" t="s">
+      <c r="E157" s="121" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="158" hidden="1" spans="1:5">
       <c r="A158" s="67"/>
-      <c r="B158" s="131"/>
-      <c r="C158" s="119" t="s">
+      <c r="B158" s="133"/>
+      <c r="C158" s="121" t="s">
         <v>307</v>
       </c>
-      <c r="E158" s="119" t="s">
+      <c r="E158" s="121" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="159" hidden="1" spans="1:5">
       <c r="A159" s="67"/>
-      <c r="B159" s="131"/>
-      <c r="C159" s="119" t="s">
+      <c r="B159" s="133"/>
+      <c r="C159" s="121" t="s">
         <v>308</v>
       </c>
-      <c r="E159" s="119" t="s">
+      <c r="E159" s="121" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="160" hidden="1" spans="1:5">
       <c r="A160" s="67"/>
-      <c r="B160" s="131"/>
-      <c r="C160" s="119" t="s">
+      <c r="B160" s="133"/>
+      <c r="C160" s="121" t="s">
         <v>309</v>
       </c>
-      <c r="E160" s="119" t="s">
+      <c r="E160" s="121" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="161" hidden="1" spans="1:3">
       <c r="A161" s="67"/>
-      <c r="B161" s="131" t="s">
+      <c r="B161" s="133" t="s">
         <v>310</v>
       </c>
-      <c r="C161" s="119" t="s">
+      <c r="C161" s="121" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="162" hidden="1" spans="1:3">
       <c r="A162" s="67"/>
-      <c r="B162" s="131"/>
-      <c r="C162" s="119" t="s">
+      <c r="B162" s="133"/>
+      <c r="C162" s="121" t="s">
         <v>312</v>
       </c>
     </row>
@@ -8100,41 +8106,41 @@
       <c r="A163" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="B163" s="131" t="s">
+      <c r="B163" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C163" s="119" t="s">
+      <c r="C163" s="121" t="s">
         <v>314</v>
       </c>
-      <c r="D163" s="121"/>
+      <c r="D163" s="123"/>
     </row>
     <row r="164" hidden="1" spans="1:3">
       <c r="A164" s="67"/>
-      <c r="B164" s="131"/>
-      <c r="C164" s="119" t="s">
+      <c r="B164" s="133"/>
+      <c r="C164" s="121" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="165" hidden="1" spans="1:3">
       <c r="A165" s="67"/>
-      <c r="B165" s="131"/>
-      <c r="C165" s="119" t="s">
+      <c r="B165" s="133"/>
+      <c r="C165" s="121" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="166" hidden="1" spans="1:3">
       <c r="A166" s="67"/>
-      <c r="B166" s="131"/>
-      <c r="C166" s="119" t="s">
+      <c r="B166" s="133"/>
+      <c r="C166" s="121" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="167" hidden="1" spans="1:3">
       <c r="A167" s="67"/>
-      <c r="B167" s="129" t="s">
+      <c r="B167" s="131" t="s">
         <v>318</v>
       </c>
-      <c r="C167" s="119" t="s">
+      <c r="C167" s="121" t="s">
         <v>319</v>
       </c>
     </row>
@@ -9527,8 +9533,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -9543,29 +9549,29 @@
     <col min="8" max="8" width="23.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="101" customFormat="1" spans="1:8">
-      <c r="A1" s="101" t="s">
+    <row r="1" s="103" customFormat="1" spans="1:8">
+      <c r="A1" s="103" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="104" t="s">
         <v>322</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="104" t="s">
         <v>323</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="103" t="s">
         <v>324</v>
       </c>
     </row>
@@ -9573,109 +9579,109 @@
       <c r="A2" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="105" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="105" t="s">
         <v>328</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="106" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="77"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="105" t="s">
         <v>331</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="105" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="105" t="s">
         <v>333</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="106" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="77"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="105" t="s">
         <v>335</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="105" t="s">
         <v>336</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="105" t="s">
         <v>337</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="106" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="77"/>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="105" t="s">
         <v>339</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="105" t="s">
         <v>340</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="105" t="s">
         <v>341</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="106" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="77"/>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="105" t="s">
         <v>343</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="105" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="105" t="s">
         <v>345</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="106" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="77"/>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="105" t="s">
         <v>347</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="105" t="s">
         <v>348</v>
       </c>
-      <c r="D7" s="103" t="s">
+      <c r="D7" s="105" t="s">
         <v>349</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="106" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9687,7 +9693,7 @@
       <c r="C8" s="59" t="s">
         <v>352</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="107" t="s">
         <v>353</v>
       </c>
       <c r="E8" s="59" t="s">
@@ -9705,7 +9711,7 @@
       <c r="C9" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="107" t="s">
         <v>357</v>
       </c>
       <c r="E9" s="59" t="s">
@@ -9731,7 +9737,7 @@
       <c r="C11" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="107" t="s">
         <v>361</v>
       </c>
       <c r="E11" s="59" t="s">
@@ -9743,13 +9749,13 @@
     </row>
     <row r="12" s="58" customFormat="1" spans="1:6">
       <c r="A12" s="68"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="108" t="s">
         <v>363</v>
       </c>
       <c r="C12" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="107" t="s">
         <v>365</v>
       </c>
       <c r="E12" s="59" t="s">
@@ -9920,7 +9926,7 @@
       <c r="C22" s="59" t="s">
         <v>400</v>
       </c>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="107" t="s">
         <v>401</v>
       </c>
       <c r="E22" s="59" t="s">
@@ -9938,7 +9944,7 @@
       <c r="C23" s="59" t="s">
         <v>404</v>
       </c>
-      <c r="D23" s="105" t="s">
+      <c r="D23" s="107" t="s">
         <v>405</v>
       </c>
       <c r="E23" s="59" t="s">
@@ -9956,7 +9962,7 @@
       <c r="C24" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="D24" s="105" t="s">
+      <c r="D24" s="107" t="s">
         <v>409</v>
       </c>
       <c r="E24" s="59" t="s">
@@ -9974,7 +9980,7 @@
       <c r="C25" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="D25" s="105" t="s">
+      <c r="D25" s="107" t="s">
         <v>413</v>
       </c>
       <c r="E25" s="59" t="s">
@@ -9986,83 +9992,83 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="77"/>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="105" t="s">
         <v>415</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="105" t="s">
         <v>416</v>
       </c>
-      <c r="D26" s="103" t="s">
+      <c r="D26" s="105" t="s">
         <v>417</v>
       </c>
-      <c r="E26" s="103" t="s">
+      <c r="E26" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F26" s="104" t="s">
+      <c r="F26" s="106" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="77"/>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="105" t="s">
         <v>419</v>
       </c>
-      <c r="C27" s="103" t="s">
+      <c r="C27" s="105" t="s">
         <v>420</v>
       </c>
-      <c r="D27" s="103" t="s">
+      <c r="D27" s="105" t="s">
         <v>421</v>
       </c>
-      <c r="E27" s="103" t="s">
+      <c r="E27" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F27" s="104" t="s">
+      <c r="F27" s="106" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="77"/>
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="105" t="s">
         <v>423</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="105" t="s">
         <v>424</v>
       </c>
-      <c r="D28" s="103" t="s">
+      <c r="D28" s="105" t="s">
         <v>425</v>
       </c>
-      <c r="E28" s="103" t="s">
+      <c r="E28" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F28" s="104" t="s">
+      <c r="F28" s="106" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="77"/>
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="105" t="s">
         <v>427</v>
       </c>
-      <c r="C29" s="103" t="s">
+      <c r="C29" s="105" t="s">
         <v>428</v>
       </c>
-      <c r="D29" s="103" t="s">
+      <c r="D29" s="105" t="s">
         <v>429</v>
       </c>
-      <c r="E29" s="103" t="s">
+      <c r="E29" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="F29" s="104" t="s">
+      <c r="F29" s="106" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="77"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
     </row>
     <row r="31" s="74" customFormat="1" spans="1:6">
       <c r="A31" s="75"/>
@@ -10096,73 +10102,73 @@
         <v>438</v>
       </c>
     </row>
-    <row r="34" s="74" customFormat="1" spans="1:8">
-      <c r="A34" s="75" t="s">
+    <row r="34" s="79" customFormat="1" spans="1:8">
+      <c r="A34" s="96" t="s">
         <v>439</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="79" t="s">
         <v>440</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="79" t="s">
         <v>441</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="F34" s="108" t="s">
+      <c r="F34" s="110" t="s">
         <v>443</v>
       </c>
-      <c r="H34" s="74" t="s">
+      <c r="H34" s="79" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="35" s="74" customFormat="1" spans="1:8">
-      <c r="A35" s="75"/>
-      <c r="B35" s="74" t="s">
+    <row r="35" s="79" customFormat="1" spans="1:8">
+      <c r="A35" s="96"/>
+      <c r="B35" s="79" t="s">
         <v>445</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="79" t="s">
         <v>446</v>
       </c>
-      <c r="E35" s="74" t="s">
+      <c r="E35" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="F35" s="109"/>
-      <c r="H35" s="74" t="s">
+      <c r="F35" s="111"/>
+      <c r="H35" s="79" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="36" s="74" customFormat="1" hidden="1" spans="1:8">
-      <c r="A36" s="75"/>
-      <c r="B36" s="74" t="s">
+    <row r="36" s="79" customFormat="1" hidden="1" spans="1:8">
+      <c r="A36" s="96"/>
+      <c r="B36" s="79" t="s">
         <v>447</v>
       </c>
-      <c r="C36" s="74" t="s">
+      <c r="C36" s="79" t="s">
         <v>448</v>
       </c>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="79" t="s">
         <v>449</v>
       </c>
-      <c r="E36" s="74" t="s">
+      <c r="E36" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="F36" s="109"/>
-      <c r="H36" s="74" t="s">
+      <c r="F36" s="111"/>
+      <c r="H36" s="79" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="37" s="74" customFormat="1" spans="1:6">
-      <c r="A37" s="75"/>
-      <c r="B37" s="74" t="s">
+    <row r="37" s="79" customFormat="1" spans="1:6">
+      <c r="A37" s="96"/>
+      <c r="B37" s="79" t="s">
         <v>450</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D37" s="79" t="s">
         <v>451</v>
       </c>
-      <c r="F37" s="110"/>
+      <c r="F37" s="112"/>
     </row>
     <row r="39" ht="35" customHeight="1" spans="1:2">
-      <c r="A39" s="111" t="s">
+      <c r="A39" s="113" t="s">
         <v>452</v>
       </c>
       <c r="B39" s="74" t="s">
@@ -10199,13 +10205,13 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="A84" sqref="A84:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="52.4416666666667" style="79" customWidth="1"/>
-    <col min="2" max="2" width="112.625" style="80" customWidth="1"/>
+    <col min="1" max="1" width="52.4416666666667" style="80" customWidth="1"/>
+    <col min="2" max="2" width="112.625" style="81" customWidth="1"/>
     <col min="3" max="3" width="40" style="58" customWidth="1"/>
     <col min="4" max="4" width="47" style="58" customWidth="1"/>
     <col min="5" max="5" width="8.775" style="58"/>
@@ -10216,7 +10222,7 @@
   </cols>
   <sheetData>
     <row r="1" s="57" customFormat="1" spans="1:6">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>320</v>
       </c>
       <c r="B1" s="61" t="s">
@@ -10236,7 +10242,7 @@
       </c>
     </row>
     <row r="2" s="59" customFormat="1" spans="1:11">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>455</v>
       </c>
       <c r="B2" s="72" t="s">
@@ -10251,7 +10257,7 @@
       <c r="E2" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="66"/>
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
@@ -10259,8 +10265,8 @@
       <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="82"/>
-      <c r="B3" s="84" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="85" t="s">
         <v>459</v>
       </c>
       <c r="C3" s="60" t="s">
@@ -10274,8 +10280,8 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="82"/>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="83"/>
+      <c r="B4" s="85" t="s">
         <v>270</v>
       </c>
       <c r="C4" s="60" t="s">
@@ -10289,8 +10295,8 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="82"/>
-      <c r="B5" s="84" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="85" t="s">
         <v>462</v>
       </c>
       <c r="C5" s="60" t="s">
@@ -10304,8 +10310,8 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="82"/>
-      <c r="B6" s="84" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="85" t="s">
         <v>464</v>
       </c>
       <c r="C6" s="60" t="s">
@@ -10319,14 +10325,14 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="82"/>
-      <c r="B7" s="84" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="85" t="s">
         <v>466</v>
       </c>
       <c r="C7" s="60" t="s">
         <v>467</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="86" t="s">
         <v>468</v>
       </c>
       <c r="E7" s="60" t="s">
@@ -10334,8 +10340,8 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="82"/>
-      <c r="B8" s="84" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="85" t="s">
         <v>272</v>
       </c>
       <c r="C8" s="60" t="s">
@@ -10349,8 +10355,8 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="82"/>
-      <c r="B9" s="84" t="s">
+      <c r="A9" s="83"/>
+      <c r="B9" s="85" t="s">
         <v>470</v>
       </c>
       <c r="C9" s="60" t="s">
@@ -10364,8 +10370,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="82"/>
-      <c r="B10" s="84" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="85" t="s">
         <v>472</v>
       </c>
       <c r="C10" s="60" t="s">
@@ -10379,8 +10385,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="82"/>
-      <c r="B11" s="84" t="s">
+      <c r="A11" s="83"/>
+      <c r="B11" s="85" t="s">
         <v>273</v>
       </c>
       <c r="C11" s="60" t="s">
@@ -10394,8 +10400,8 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="82"/>
-      <c r="B12" s="84" t="s">
+      <c r="A12" s="83"/>
+      <c r="B12" s="85" t="s">
         <v>475</v>
       </c>
       <c r="C12" s="60" t="s">
@@ -10409,8 +10415,8 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="82"/>
-      <c r="B13" s="84" t="s">
+      <c r="A13" s="83"/>
+      <c r="B13" s="85" t="s">
         <v>477</v>
       </c>
       <c r="C13" s="60" t="s">
@@ -10424,8 +10430,8 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="82"/>
-      <c r="B14" s="84" t="s">
+      <c r="A14" s="83"/>
+      <c r="B14" s="85" t="s">
         <v>479</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -10439,8 +10445,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="82"/>
-      <c r="B15" s="84" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="85" t="s">
         <v>481</v>
       </c>
       <c r="C15" s="60" t="s">
@@ -10454,8 +10460,8 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="82"/>
-      <c r="B16" s="84" t="s">
+      <c r="A16" s="83"/>
+      <c r="B16" s="85" t="s">
         <v>483</v>
       </c>
       <c r="C16" s="60" t="s">
@@ -10469,8 +10475,8 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="82"/>
-      <c r="B17" s="84" t="s">
+      <c r="A17" s="83"/>
+      <c r="B17" s="85" t="s">
         <v>485</v>
       </c>
       <c r="C17" s="60" t="s">
@@ -10484,8 +10490,8 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="82"/>
-      <c r="B18" s="84" t="s">
+      <c r="A18" s="83"/>
+      <c r="B18" s="85" t="s">
         <v>487</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -10499,8 +10505,8 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="82"/>
-      <c r="B19" s="84" t="s">
+      <c r="A19" s="83"/>
+      <c r="B19" s="85" t="s">
         <v>489</v>
       </c>
       <c r="C19" s="60" t="s">
@@ -10514,8 +10520,8 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="82"/>
-      <c r="B20" s="84" t="s">
+      <c r="A20" s="83"/>
+      <c r="B20" s="85" t="s">
         <v>491</v>
       </c>
       <c r="C20" s="60" t="s">
@@ -10529,7 +10535,7 @@
       </c>
     </row>
     <row r="21" s="59" customFormat="1" spans="1:5">
-      <c r="A21" s="82"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="72" t="s">
         <v>493</v>
       </c>
@@ -10544,14 +10550,14 @@
       </c>
     </row>
     <row r="22" s="59" customFormat="1" spans="1:5">
-      <c r="A22" s="82"/>
+      <c r="A22" s="83"/>
       <c r="B22" s="72" t="s">
         <v>495</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="86" t="s">
         <v>497</v>
       </c>
       <c r="E22" s="60" t="s">
@@ -10559,7 +10565,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="83" t="s">
         <v>498</v>
       </c>
       <c r="B23" s="60" t="s">
@@ -10583,7 +10589,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="82"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="67" t="s">
         <v>459</v>
       </c>
@@ -10603,7 +10609,7 @@
       <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="82"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="67" t="s">
         <v>270</v>
       </c>
@@ -10625,7 +10631,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="82"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="67" t="s">
         <v>462</v>
       </c>
@@ -10645,14 +10651,14 @@
       <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="82"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="67" t="s">
         <v>466</v>
       </c>
       <c r="C27" s="60" t="s">
         <v>467</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="86" t="s">
         <v>468</v>
       </c>
       <c r="E27" s="60" t="s">
@@ -10665,7 +10671,7 @@
       <c r="H27" s="59"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="82"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="67" t="s">
         <v>272</v>
       </c>
@@ -10685,7 +10691,7 @@
       <c r="H28" s="59"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="82"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="67" t="s">
         <v>472</v>
       </c>
@@ -10705,7 +10711,7 @@
       <c r="H29" s="59"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="82"/>
+      <c r="A30" s="83"/>
       <c r="B30" s="67" t="s">
         <v>273</v>
       </c>
@@ -10725,7 +10731,7 @@
       <c r="H30" s="59"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="82"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="67" t="s">
         <v>475</v>
       </c>
@@ -10745,7 +10751,7 @@
       <c r="H31" s="59"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="82"/>
+      <c r="A32" s="83"/>
       <c r="B32" s="67" t="s">
         <v>479</v>
       </c>
@@ -10765,7 +10771,7 @@
       <c r="H32" s="59"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="82"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="67" t="s">
         <v>483</v>
       </c>
@@ -10787,10 +10793,10 @@
       </c>
     </row>
     <row r="34" s="59" customFormat="1" spans="1:6">
-      <c r="A34" s="86" t="s">
+      <c r="A34" s="87" t="s">
         <v>504</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="88" t="s">
         <v>462</v>
       </c>
       <c r="C34" s="60" t="s">
@@ -10807,8 +10813,8 @@
       </c>
     </row>
     <row r="35" s="59" customFormat="1" spans="1:8">
-      <c r="A35" s="88"/>
-      <c r="B35" s="87" t="s">
+      <c r="A35" s="89"/>
+      <c r="B35" s="88" t="s">
         <v>270</v>
       </c>
       <c r="C35" s="60" t="s">
@@ -10829,8 +10835,8 @@
       </c>
     </row>
     <row r="36" s="59" customFormat="1" spans="1:8">
-      <c r="A36" s="88"/>
-      <c r="B36" s="87" t="s">
+      <c r="A36" s="89"/>
+      <c r="B36" s="88" t="s">
         <v>506</v>
       </c>
       <c r="C36" s="60" t="s">
@@ -10851,8 +10857,8 @@
       </c>
     </row>
     <row r="37" s="59" customFormat="1" spans="1:7">
-      <c r="A37" s="88"/>
-      <c r="B37" s="87" t="s">
+      <c r="A37" s="89"/>
+      <c r="B37" s="88" t="s">
         <v>456</v>
       </c>
       <c r="C37" s="60" t="s">
@@ -10870,8 +10876,8 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" s="59" customFormat="1" spans="1:7">
-      <c r="A38" s="88"/>
-      <c r="B38" s="87" t="s">
+      <c r="A38" s="89"/>
+      <c r="B38" s="88" t="s">
         <v>508</v>
       </c>
       <c r="C38" s="60" t="s">
@@ -10889,8 +10895,8 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" s="59" customFormat="1" spans="1:7">
-      <c r="A39" s="88"/>
-      <c r="B39" s="87" t="s">
+      <c r="A39" s="89"/>
+      <c r="B39" s="88" t="s">
         <v>271</v>
       </c>
       <c r="C39" s="60" t="s">
@@ -10908,8 +10914,8 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" s="59" customFormat="1" spans="1:8">
-      <c r="A40" s="88"/>
-      <c r="B40" s="87" t="s">
+      <c r="A40" s="89"/>
+      <c r="B40" s="88" t="s">
         <v>464</v>
       </c>
       <c r="C40" s="60" t="s">
@@ -10932,8 +10938,8 @@
       </c>
     </row>
     <row r="41" s="59" customFormat="1" spans="1:8">
-      <c r="A41" s="89"/>
-      <c r="B41" s="87" t="s">
+      <c r="A41" s="90"/>
+      <c r="B41" s="88" t="s">
         <v>512</v>
       </c>
       <c r="C41" s="60" t="s">
@@ -10953,27 +10959,27 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="88" t="s">
+      <c r="A43" s="89" t="s">
         <v>515</v>
       </c>
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="91" t="s">
         <v>508</v>
       </c>
-      <c r="C43" s="91" t="s">
+      <c r="C43" s="92" t="s">
         <v>509</v>
       </c>
-      <c r="D43" s="91" t="s">
+      <c r="D43" s="92" t="s">
         <v>509</v>
       </c>
-      <c r="E43" s="91" t="s">
+      <c r="E43" s="92" t="s">
         <v>458</v>
       </c>
-      <c r="F43" s="92" t="s">
+      <c r="F43" s="93" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="88"/>
+      <c r="A44" s="89"/>
       <c r="B44" s="72" t="s">
         <v>456</v>
       </c>
@@ -10986,11 +10992,11 @@
       <c r="E44" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="F44" s="93"/>
+      <c r="F44" s="94"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="88"/>
-      <c r="B45" s="84" t="s">
+      <c r="A45" s="89"/>
+      <c r="B45" s="85" t="s">
         <v>459</v>
       </c>
       <c r="C45" s="60" t="s">
@@ -11002,11 +11008,11 @@
       <c r="E45" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="F45" s="93"/>
+      <c r="F45" s="94"/>
     </row>
     <row r="46" s="78" customFormat="1" spans="1:6">
-      <c r="A46" s="94"/>
-      <c r="B46" s="84" t="s">
+      <c r="A46" s="95"/>
+      <c r="B46" s="85" t="s">
         <v>270</v>
       </c>
       <c r="C46" s="60" t="s">
@@ -11018,11 +11024,11 @@
       <c r="E46" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="F46" s="93"/>
+      <c r="F46" s="94"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="88"/>
-      <c r="B47" s="84" t="s">
+      <c r="A47" s="89"/>
+      <c r="B47" s="85" t="s">
         <v>462</v>
       </c>
       <c r="C47" s="60" t="s">
@@ -11034,11 +11040,11 @@
       <c r="E47" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="F47" s="93"/>
+      <c r="F47" s="94"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="88"/>
-      <c r="B48" s="84" t="s">
+      <c r="A48" s="89"/>
+      <c r="B48" s="85" t="s">
         <v>464</v>
       </c>
       <c r="C48" s="60" t="s">
@@ -11050,27 +11056,27 @@
       <c r="E48" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F48" s="93"/>
+      <c r="F48" s="94"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="88"/>
-      <c r="B49" s="84" t="s">
+      <c r="A49" s="89"/>
+      <c r="B49" s="85" t="s">
         <v>466</v>
       </c>
       <c r="C49" s="60" t="s">
         <v>467</v>
       </c>
-      <c r="D49" s="85" t="s">
+      <c r="D49" s="86" t="s">
         <v>468</v>
       </c>
       <c r="E49" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="F49" s="93"/>
+      <c r="F49" s="94"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="88"/>
-      <c r="B50" s="84" t="s">
+      <c r="A50" s="89"/>
+      <c r="B50" s="85" t="s">
         <v>272</v>
       </c>
       <c r="C50" s="60" t="s">
@@ -11082,11 +11088,11 @@
       <c r="E50" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F50" s="93"/>
+      <c r="F50" s="94"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="88"/>
-      <c r="B51" s="84" t="s">
+      <c r="A51" s="89"/>
+      <c r="B51" s="85" t="s">
         <v>470</v>
       </c>
       <c r="C51" s="60" t="s">
@@ -11098,11 +11104,11 @@
       <c r="E51" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F51" s="93"/>
+      <c r="F51" s="94"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="88"/>
-      <c r="B52" s="84" t="s">
+      <c r="A52" s="89"/>
+      <c r="B52" s="85" t="s">
         <v>472</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -11114,11 +11120,11 @@
       <c r="E52" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F52" s="93"/>
+      <c r="F52" s="94"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="88"/>
-      <c r="B53" s="84" t="s">
+      <c r="A53" s="89"/>
+      <c r="B53" s="85" t="s">
         <v>273</v>
       </c>
       <c r="C53" s="60" t="s">
@@ -11130,11 +11136,11 @@
       <c r="E53" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F53" s="93"/>
+      <c r="F53" s="94"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="88"/>
-      <c r="B54" s="84" t="s">
+      <c r="A54" s="89"/>
+      <c r="B54" s="85" t="s">
         <v>475</v>
       </c>
       <c r="C54" s="60" t="s">
@@ -11146,11 +11152,11 @@
       <c r="E54" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F54" s="93"/>
+      <c r="F54" s="94"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="88"/>
-      <c r="B55" s="84" t="s">
+      <c r="A55" s="89"/>
+      <c r="B55" s="85" t="s">
         <v>477</v>
       </c>
       <c r="C55" s="60" t="s">
@@ -11162,11 +11168,11 @@
       <c r="E55" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F55" s="93"/>
+      <c r="F55" s="94"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="88"/>
-      <c r="B56" s="84" t="s">
+      <c r="A56" s="89"/>
+      <c r="B56" s="85" t="s">
         <v>479</v>
       </c>
       <c r="C56" s="60" t="s">
@@ -11178,11 +11184,11 @@
       <c r="E56" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F56" s="93"/>
+      <c r="F56" s="94"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="88"/>
-      <c r="B57" s="84" t="s">
+      <c r="A57" s="89"/>
+      <c r="B57" s="85" t="s">
         <v>481</v>
       </c>
       <c r="C57" s="60" t="s">
@@ -11194,11 +11200,11 @@
       <c r="E57" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F57" s="93"/>
+      <c r="F57" s="94"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="88"/>
-      <c r="B58" s="84" t="s">
+      <c r="A58" s="89"/>
+      <c r="B58" s="85" t="s">
         <v>483</v>
       </c>
       <c r="C58" s="60" t="s">
@@ -11210,11 +11216,11 @@
       <c r="E58" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F58" s="93"/>
+      <c r="F58" s="94"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="88"/>
-      <c r="B59" s="84" t="s">
+      <c r="A59" s="89"/>
+      <c r="B59" s="85" t="s">
         <v>485</v>
       </c>
       <c r="C59" s="60" t="s">
@@ -11226,11 +11232,11 @@
       <c r="E59" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F59" s="93"/>
+      <c r="F59" s="94"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="88"/>
-      <c r="B60" s="84" t="s">
+      <c r="A60" s="89"/>
+      <c r="B60" s="85" t="s">
         <v>487</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -11242,11 +11248,11 @@
       <c r="E60" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F60" s="93"/>
+      <c r="F60" s="94"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="88"/>
-      <c r="B61" s="84" t="s">
+      <c r="A61" s="89"/>
+      <c r="B61" s="85" t="s">
         <v>489</v>
       </c>
       <c r="C61" s="60" t="s">
@@ -11258,11 +11264,11 @@
       <c r="E61" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F61" s="93"/>
+      <c r="F61" s="94"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="88"/>
-      <c r="B62" s="84" t="s">
+      <c r="A62" s="89"/>
+      <c r="B62" s="85" t="s">
         <v>491</v>
       </c>
       <c r="C62" s="60" t="s">
@@ -11274,10 +11280,10 @@
       <c r="E62" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F62" s="93"/>
+      <c r="F62" s="94"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="88"/>
+      <c r="A63" s="89"/>
       <c r="B63" s="72" t="s">
         <v>493</v>
       </c>
@@ -11290,374 +11296,374 @@
       <c r="E63" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F63" s="93"/>
+      <c r="F63" s="94"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="88"/>
+      <c r="A64" s="89"/>
       <c r="B64" s="72" t="s">
         <v>495</v>
       </c>
       <c r="C64" s="60" t="s">
         <v>496</v>
       </c>
-      <c r="D64" s="85" t="s">
+      <c r="D64" s="86" t="s">
         <v>497</v>
       </c>
       <c r="E64" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F64" s="93"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="75" t="s">
+      <c r="F64" s="94"/>
+    </row>
+    <row r="66" s="79" customFormat="1" spans="1:6">
+      <c r="A66" s="96" t="s">
         <v>439</v>
       </c>
-      <c r="B66" s="74" t="s">
+      <c r="B66" s="79" t="s">
         <v>517</v>
       </c>
-      <c r="C66" s="74" t="s">
+      <c r="C66" s="79" t="s">
         <v>518</v>
       </c>
-      <c r="D66" s="74" t="s">
+      <c r="D66" s="79" t="s">
         <v>518</v>
       </c>
-      <c r="E66" s="74" t="s">
+      <c r="E66" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="F66" s="75" t="s">
+      <c r="F66" s="96" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="75"/>
-      <c r="B67" s="74" t="s">
+    <row r="67" s="79" customFormat="1" spans="1:6">
+      <c r="A67" s="96"/>
+      <c r="B67" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="C67" s="74" t="s">
+      <c r="C67" s="79" t="s">
         <v>521</v>
       </c>
-      <c r="D67" s="74" t="s">
+      <c r="D67" s="79" t="s">
         <v>521</v>
       </c>
-      <c r="E67" s="74" t="s">
+      <c r="E67" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="F67" s="75"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="75"/>
-      <c r="B68" s="74" t="s">
+      <c r="F67" s="96"/>
+    </row>
+    <row r="68" s="79" customFormat="1" spans="1:6">
+      <c r="A68" s="96"/>
+      <c r="B68" s="79" t="s">
         <v>522</v>
       </c>
-      <c r="C68" s="74" t="s">
+      <c r="C68" s="79" t="s">
         <v>523</v>
       </c>
-      <c r="D68" s="74" t="s">
+      <c r="D68" s="79" t="s">
         <v>523</v>
       </c>
-      <c r="E68" s="74" t="s">
+      <c r="E68" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="F68" s="75"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="75"/>
-      <c r="B69" s="74" t="s">
+      <c r="F68" s="96"/>
+    </row>
+    <row r="69" s="79" customFormat="1" spans="1:6">
+      <c r="A69" s="96"/>
+      <c r="B69" s="79" t="s">
         <v>524</v>
       </c>
-      <c r="C69" s="74" t="s">
+      <c r="C69" s="79" t="s">
         <v>525</v>
       </c>
-      <c r="D69" s="74" t="s">
+      <c r="D69" s="79" t="s">
         <v>525</v>
       </c>
-      <c r="E69" s="74" t="s">
+      <c r="E69" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="F69" s="75"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="75"/>
-      <c r="B70" s="74" t="s">
+      <c r="F69" s="96"/>
+    </row>
+    <row r="70" s="79" customFormat="1" spans="1:6">
+      <c r="A70" s="96"/>
+      <c r="B70" s="79" t="s">
         <v>526</v>
       </c>
-      <c r="C70" s="74" t="s">
+      <c r="C70" s="79" t="s">
         <v>527</v>
       </c>
-      <c r="D70" s="74" t="s">
+      <c r="D70" s="79" t="s">
         <v>527</v>
       </c>
-      <c r="E70" s="74" t="s">
+      <c r="E70" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="F70" s="75"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="75"/>
-      <c r="B71" s="74" t="s">
+      <c r="F70" s="96"/>
+    </row>
+    <row r="71" s="79" customFormat="1" spans="1:6">
+      <c r="A71" s="96"/>
+      <c r="B71" s="79" t="s">
         <v>528</v>
       </c>
-      <c r="C71" s="74" t="s">
+      <c r="C71" s="79" t="s">
         <v>529</v>
       </c>
-      <c r="D71" s="74" t="s">
+      <c r="D71" s="79" t="s">
         <v>529</v>
       </c>
-      <c r="E71" s="74" t="s">
+      <c r="E71" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="F71" s="75"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="75"/>
-      <c r="B72" s="74" t="s">
+      <c r="F71" s="96"/>
+    </row>
+    <row r="72" s="79" customFormat="1" spans="1:6">
+      <c r="A72" s="96"/>
+      <c r="B72" s="79" t="s">
         <v>530</v>
       </c>
-      <c r="C72" s="74" t="s">
+      <c r="C72" s="79" t="s">
         <v>531</v>
       </c>
-      <c r="D72" s="74" t="s">
+      <c r="D72" s="79" t="s">
         <v>531</v>
       </c>
-      <c r="E72" s="74" t="s">
+      <c r="E72" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="F72" s="75"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="75"/>
-      <c r="B73" s="74" t="s">
+      <c r="F72" s="96"/>
+    </row>
+    <row r="73" s="79" customFormat="1" spans="1:6">
+      <c r="A73" s="96"/>
+      <c r="B73" s="79" t="s">
         <v>532</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="79" t="s">
         <v>533</v>
       </c>
-      <c r="D73" s="74" t="s">
+      <c r="D73" s="79" t="s">
         <v>533</v>
       </c>
-      <c r="E73" s="74" t="s">
+      <c r="E73" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="F73" s="75"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="75"/>
-      <c r="B74" s="74" t="s">
+      <c r="F73" s="96"/>
+    </row>
+    <row r="74" s="79" customFormat="1" spans="1:6">
+      <c r="A74" s="96"/>
+      <c r="B74" s="79" t="s">
         <v>534</v>
       </c>
-      <c r="C74" s="74" t="s">
+      <c r="C74" s="79" t="s">
         <v>535</v>
       </c>
-      <c r="D74" s="74" t="s">
+      <c r="D74" s="79" t="s">
         <v>535</v>
       </c>
-      <c r="E74" s="74" t="s">
+      <c r="E74" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="F74" s="75"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="75"/>
-      <c r="B75" s="74" t="s">
+      <c r="F74" s="96"/>
+    </row>
+    <row r="75" s="79" customFormat="1" spans="1:6">
+      <c r="A75" s="96"/>
+      <c r="B75" s="79" t="s">
         <v>536</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="79" t="s">
         <v>537</v>
       </c>
-      <c r="D75" s="74" t="s">
+      <c r="D75" s="79" t="s">
         <v>537</v>
       </c>
-      <c r="E75" s="74" t="s">
+      <c r="E75" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="F75" s="75"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="75"/>
-      <c r="B76" s="74" t="s">
+      <c r="F75" s="96"/>
+    </row>
+    <row r="76" s="79" customFormat="1" spans="1:6">
+      <c r="A76" s="96"/>
+      <c r="B76" s="79" t="s">
         <v>538</v>
       </c>
-      <c r="C76" s="74" t="s">
+      <c r="C76" s="79" t="s">
         <v>539</v>
       </c>
-      <c r="D76" s="74" t="s">
+      <c r="D76" s="79" t="s">
         <v>539</v>
       </c>
-      <c r="E76" s="74" t="s">
+      <c r="E76" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="F76" s="75"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="75"/>
-      <c r="B77" s="74" t="s">
+      <c r="F76" s="96"/>
+    </row>
+    <row r="77" s="79" customFormat="1" spans="1:6">
+      <c r="A77" s="96"/>
+      <c r="B77" s="79" t="s">
         <v>540</v>
       </c>
-      <c r="C77" s="74" t="s">
+      <c r="C77" s="79" t="s">
         <v>541</v>
       </c>
-      <c r="D77" s="74" t="s">
+      <c r="D77" s="79" t="s">
         <v>541</v>
       </c>
-      <c r="E77" s="74" t="s">
+      <c r="E77" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="F77" s="75"/>
+      <c r="F77" s="96"/>
     </row>
     <row r="79" s="74" customFormat="1" spans="1:5">
-      <c r="A79" s="95" t="s">
+      <c r="A79" s="97" t="s">
         <v>542</v>
       </c>
-      <c r="B79" s="96" t="s">
+      <c r="B79" s="98" t="s">
         <v>543</v>
       </c>
-      <c r="E79" s="97"/>
+      <c r="E79" s="99"/>
     </row>
     <row r="80" s="74" customFormat="1" spans="1:5">
-      <c r="A80" s="95"/>
-      <c r="B80" s="96" t="s">
+      <c r="A80" s="97"/>
+      <c r="B80" s="98" t="s">
         <v>544</v>
       </c>
-      <c r="E80" s="97"/>
+      <c r="E80" s="99"/>
     </row>
     <row r="81" s="74" customFormat="1" spans="1:5">
-      <c r="A81" s="95" t="s">
+      <c r="A81" s="97" t="s">
         <v>545</v>
       </c>
-      <c r="B81" s="96" t="s">
+      <c r="B81" s="98" t="s">
         <v>546</v>
       </c>
-      <c r="E81" s="97"/>
+      <c r="E81" s="99"/>
     </row>
     <row r="82" s="74" customFormat="1" spans="1:5">
-      <c r="A82" s="95"/>
-      <c r="B82" s="96" t="s">
+      <c r="A82" s="97"/>
+      <c r="B82" s="98" t="s">
         <v>547</v>
       </c>
-      <c r="E82" s="97"/>
+      <c r="E82" s="99"/>
     </row>
     <row r="83" s="74" customFormat="1" spans="5:5">
-      <c r="E83" s="97"/>
+      <c r="E83" s="99"/>
     </row>
     <row r="84" s="74" customFormat="1" spans="1:6">
-      <c r="A84" s="98" t="s">
+      <c r="A84" s="100" t="s">
         <v>548</v>
       </c>
-      <c r="B84" s="99" t="s">
+      <c r="B84" s="101" t="s">
         <v>549</v>
       </c>
-      <c r="C84" s="97" t="s">
+      <c r="C84" s="99" t="s">
         <v>550</v>
       </c>
-      <c r="D84" s="97" t="s">
+      <c r="D84" s="99" t="s">
         <v>550</v>
       </c>
-      <c r="F84" s="97" t="s">
+      <c r="F84" s="99" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="85" s="74" customFormat="1" spans="1:6">
-      <c r="A85" s="98"/>
-      <c r="B85" s="99" t="s">
+      <c r="A85" s="100"/>
+      <c r="B85" s="101" t="s">
         <v>552</v>
       </c>
-      <c r="C85" s="97" t="s">
+      <c r="C85" s="99" t="s">
         <v>550</v>
       </c>
-      <c r="D85" s="97" t="s">
+      <c r="D85" s="99" t="s">
         <v>550</v>
       </c>
-      <c r="F85" s="97" t="s">
+      <c r="F85" s="99" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="98"/>
-      <c r="B86" s="100" t="s">
+      <c r="A86" s="100"/>
+      <c r="B86" s="102" t="s">
         <v>554</v>
       </c>
-      <c r="C86" s="97" t="s">
+      <c r="C86" s="99" t="s">
         <v>550</v>
       </c>
-      <c r="D86" s="97" t="s">
+      <c r="D86" s="99" t="s">
         <v>550</v>
       </c>
-      <c r="F86" s="97" t="s">
+      <c r="F86" s="99" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="98"/>
-      <c r="B87" s="99" t="s">
+      <c r="A87" s="100"/>
+      <c r="B87" s="101" t="s">
         <v>556</v>
       </c>
-      <c r="C87" s="97" t="s">
+      <c r="C87" s="99" t="s">
         <v>550</v>
       </c>
-      <c r="D87" s="97" t="s">
+      <c r="D87" s="99" t="s">
         <v>550</v>
       </c>
-      <c r="F87" s="97" t="s">
+      <c r="F87" s="99" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="98"/>
-      <c r="B88" s="100" t="s">
+      <c r="A88" s="100"/>
+      <c r="B88" s="102" t="s">
         <v>558</v>
       </c>
-      <c r="C88" s="97" t="s">
+      <c r="C88" s="99" t="s">
         <v>550</v>
       </c>
-      <c r="D88" s="97" t="s">
+      <c r="D88" s="99" t="s">
         <v>550</v>
       </c>
-      <c r="F88" s="97" t="s">
+      <c r="F88" s="99" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="98"/>
-      <c r="B89" s="99" t="s">
+      <c r="A89" s="100"/>
+      <c r="B89" s="101" t="s">
         <v>560</v>
       </c>
-      <c r="C89" s="97" t="s">
+      <c r="C89" s="99" t="s">
         <v>550</v>
       </c>
-      <c r="D89" s="97" t="s">
+      <c r="D89" s="99" t="s">
         <v>550</v>
       </c>
-      <c r="F89" s="97" t="s">
+      <c r="F89" s="99" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="90" hidden="1" spans="1:6">
-      <c r="A90" s="98"/>
-      <c r="B90" s="99" t="s">
+      <c r="A90" s="100"/>
+      <c r="B90" s="101" t="s">
         <v>562</v>
       </c>
-      <c r="C90" s="97" t="s">
+      <c r="C90" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="D90" s="97" t="s">
+      <c r="D90" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="F90" s="97" t="s">
+      <c r="F90" s="99" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="98"/>
-      <c r="B91" s="99" t="s">
+      <c r="A91" s="100"/>
+      <c r="B91" s="101" t="s">
         <v>565</v>
       </c>
-      <c r="C91" s="97" t="s">
+      <c r="C91" s="99" t="s">
         <v>566</v>
       </c>
-      <c r="D91" s="97" t="s">
+      <c r="D91" s="99" t="s">
         <v>566</v>
       </c>
-      <c r="F91" s="97" t="s">
+      <c r="F91" s="99" t="s">
         <v>567</v>
       </c>
     </row>
@@ -14276,7 +14282,7 @@
       <c r="D91" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="H91" s="192" t="s">
+      <c r="H91" s="194" t="s">
         <v>742</v>
       </c>
     </row>
